--- a/BackTest/2020-01-14 BackTest FNB.xlsx
+++ b/BackTest/2020-01-14 BackTest FNB.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-5849655.1344</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-5849655.1344</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-5849483.5903</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-5849483.5903</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-5849829.5903</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-5840254.0583</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-5861372.2571</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-5854680.8675</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-5854680.8675</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-5855110.8675</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-5854938.3687</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-5854938.3687</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-5856238.5198</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>-5857349.5198</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>-5857349.5198</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>-5857349.5198</v>
       </c>
       <c r="H18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-5964906.210299999</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-5964462.210299999</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-5964462.210299999</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>-5964462.210299999</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>-5961962.210299999</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>-5920919.1772</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>-5885402.5865</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>-5885402.5865</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>-5882902.5865</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>-5839745.8941</v>
       </c>
       <c r="H30" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>-5839745.8941</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>-6290760.736500001</v>
       </c>
       <c r="H32" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>-6290760.736500001</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>-6290760.736500001</v>
       </c>
       <c r="H34" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>-6276310.541300001</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>-6249872.736500001</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>-6520815.4246</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>-6520315.4246</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>-6520537.4246</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>-6520537.4246</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>-6520537.4246</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>-6547589.53</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>-6772911.6747</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>-6770005.250100001</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>-6778050.848900001</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>-6778050.848900001</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>-6776550.848900001</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>-6965512.671300001</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>-6965512.671300001</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>-6965335.671300001</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>-6965335.671300001</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>-6965335.671300001</v>
       </c>
       <c r="H52" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>-6861958.7071</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>-6861781.7071</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>-6862225.7071</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -5929,7 +5929,7 @@
         <v>-19785981.16259217</v>
       </c>
       <c r="H168" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -6061,7 +6061,7 @@
         <v>-16911673.01979217</v>
       </c>
       <c r="H172" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6127,7 +6127,7 @@
         <v>-16851451.01979217</v>
       </c>
       <c r="H174" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6160,7 +6160,7 @@
         <v>-25537815.30229217</v>
       </c>
       <c r="H175" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6193,7 +6193,7 @@
         <v>-25391923.47699217</v>
       </c>
       <c r="H176" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6226,7 +6226,7 @@
         <v>-26390411.16299217</v>
       </c>
       <c r="H177" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6292,7 +6292,7 @@
         <v>-26380411.16299217</v>
       </c>
       <c r="H179" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6325,7 +6325,7 @@
         <v>-74105274.81549217</v>
       </c>
       <c r="H180" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -6391,7 +6391,7 @@
         <v>61456480.10080783</v>
       </c>
       <c r="H182" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -6622,7 +6622,7 @@
         <v>79033758.20870784</v>
       </c>
       <c r="H189" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -6721,7 +6721,7 @@
         <v>65517624.15150784</v>
       </c>
       <c r="H192" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -7018,7 +7018,7 @@
         <v>62108279.99200784</v>
       </c>
       <c r="H201" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -7315,7 +7315,7 @@
         <v>62377559.84100784</v>
       </c>
       <c r="H210" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
@@ -7348,7 +7348,7 @@
         <v>62367650.40860784</v>
       </c>
       <c r="H211" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
@@ -7381,7 +7381,7 @@
         <v>62367206.40860784</v>
       </c>
       <c r="H212" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
@@ -7414,7 +7414,7 @@
         <v>62366762.40860784</v>
       </c>
       <c r="H213" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
@@ -7447,7 +7447,7 @@
         <v>62366762.40860784</v>
       </c>
       <c r="H214" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
@@ -7612,7 +7612,7 @@
         <v>62535835.92180784</v>
       </c>
       <c r="H219" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
@@ -7645,7 +7645,7 @@
         <v>62065728.36310784</v>
       </c>
       <c r="H220" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
@@ -7711,7 +7711,7 @@
         <v>62068392.36310784</v>
       </c>
       <c r="H222" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
@@ -7744,7 +7744,7 @@
         <v>61767948.36310784</v>
       </c>
       <c r="H223" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
@@ -7876,7 +7876,7 @@
         <v>61895216.67400784</v>
       </c>
       <c r="H227" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
@@ -7942,7 +7942,7 @@
         <v>61893440.67400784</v>
       </c>
       <c r="H229" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
@@ -8008,7 +8008,7 @@
         <v>62153363.14300784</v>
       </c>
       <c r="H231" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
@@ -8041,7 +8041,7 @@
         <v>62164701.44450784</v>
       </c>
       <c r="H232" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
@@ -8074,7 +8074,7 @@
         <v>62163369.44450784</v>
       </c>
       <c r="H233" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
@@ -8107,7 +8107,7 @@
         <v>62162481.44450784</v>
       </c>
       <c r="H234" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
@@ -8140,7 +8140,7 @@
         <v>62163813.44450784</v>
       </c>
       <c r="H235" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
@@ -8173,7 +8173,7 @@
         <v>61782717.56800783</v>
       </c>
       <c r="H236" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
@@ -8206,7 +8206,7 @@
         <v>61783161.56800783</v>
       </c>
       <c r="H237" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
@@ -8239,7 +8239,7 @@
         <v>61781378.66280784</v>
       </c>
       <c r="H238" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
@@ -8272,7 +8272,7 @@
         <v>61779934.66280784</v>
       </c>
       <c r="H239" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
@@ -8305,7 +8305,7 @@
         <v>60668523.77650784</v>
       </c>
       <c r="H240" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
@@ -8338,7 +8338,7 @@
         <v>60698523.77650784</v>
       </c>
       <c r="H241" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
@@ -8371,7 +8371,7 @@
         <v>60698523.77650784</v>
       </c>
       <c r="H242" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
@@ -8404,7 +8404,7 @@
         <v>60698523.77650784</v>
       </c>
       <c r="H243" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
@@ -8437,7 +8437,7 @@
         <v>61637798.84418161</v>
       </c>
       <c r="H244" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
@@ -8470,7 +8470,7 @@
         <v>61612893.84388161</v>
       </c>
       <c r="H245" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
@@ -8503,7 +8503,7 @@
         <v>61645640.47358161</v>
       </c>
       <c r="H246" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
@@ -8536,7 +8536,7 @@
         <v>61645196.47358161</v>
       </c>
       <c r="H247" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
@@ -8569,7 +8569,7 @@
         <v>61645196.47358161</v>
       </c>
       <c r="H248" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
@@ -8602,7 +8602,7 @@
         <v>61672837.44018161</v>
       </c>
       <c r="H249" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
@@ -8635,7 +8635,7 @@
         <v>61672393.44018161</v>
       </c>
       <c r="H250" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
@@ -8668,7 +8668,7 @@
         <v>61672615.44018161</v>
       </c>
       <c r="H251" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
@@ -8701,7 +8701,7 @@
         <v>61670583.21578161</v>
       </c>
       <c r="H252" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
@@ -8734,7 +8734,7 @@
         <v>61651578.77758162</v>
       </c>
       <c r="H253" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
@@ -8767,7 +8767,7 @@
         <v>61699518.21578161</v>
       </c>
       <c r="H254" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
@@ -8800,7 +8800,7 @@
         <v>61700850.21578161</v>
       </c>
       <c r="H255" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
@@ -8833,7 +8833,7 @@
         <v>61700850.21578161</v>
       </c>
       <c r="H256" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
@@ -8866,7 +8866,7 @@
         <v>61700850.21578161</v>
       </c>
       <c r="H257" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
@@ -8899,7 +8899,7 @@
         <v>61671629.93078162</v>
       </c>
       <c r="H258" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
@@ -8932,7 +8932,7 @@
         <v>60948085.29208162</v>
       </c>
       <c r="H259" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
@@ -9031,7 +9031,7 @@
         <v>59495143.40058161</v>
       </c>
       <c r="H262" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
@@ -9097,7 +9097,7 @@
         <v>59494899.53538162</v>
       </c>
       <c r="H264" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
@@ -9130,7 +9130,7 @@
         <v>59495121.53538162</v>
       </c>
       <c r="H265" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
@@ -9394,7 +9394,7 @@
         <v>58383280.15888161</v>
       </c>
       <c r="H273" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
@@ -9493,7 +9493,7 @@
         <v>58833343.88338161</v>
       </c>
       <c r="H276" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
@@ -9526,7 +9526,7 @@
         <v>58832015.27198161</v>
       </c>
       <c r="H277" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
@@ -9559,7 +9559,7 @@
         <v>58832015.27198161</v>
       </c>
       <c r="H278" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
@@ -9592,7 +9592,7 @@
         <v>58800215.27198161</v>
       </c>
       <c r="H279" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
@@ -9625,7 +9625,7 @@
         <v>58567827.61338161</v>
       </c>
       <c r="H280" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
@@ -9658,7 +9658,7 @@
         <v>58281472.60848161</v>
       </c>
       <c r="H281" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
@@ -9724,7 +9724,7 @@
         <v>56514862.74068161</v>
       </c>
       <c r="H283" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
@@ -9757,7 +9757,7 @@
         <v>56514862.74068161</v>
       </c>
       <c r="H284" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
@@ -9790,7 +9790,7 @@
         <v>56375886.16958161</v>
       </c>
       <c r="H285" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
@@ -11440,10 +11440,14 @@
         <v>29142485.12118161</v>
       </c>
       <c r="H335" t="n">
-        <v>0</v>
-      </c>
-      <c r="I335" t="inlineStr"/>
-      <c r="J335" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I335" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="J335" t="n">
+        <v>2.71</v>
+      </c>
       <c r="K335" t="inlineStr"/>
       <c r="L335" t="n">
         <v>1</v>
@@ -11476,8 +11480,14 @@
         <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
-      <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr"/>
+      <c r="J336" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="K336" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -11509,8 +11519,14 @@
         <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
-      <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr"/>
+      <c r="J337" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="K337" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -11605,7 +11621,7 @@
         <v>28365455.36128161</v>
       </c>
       <c r="H340" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I340" t="n">
         <v>2.75</v>
@@ -11644,9 +11660,11 @@
         <v>28415455.36128161</v>
       </c>
       <c r="H341" t="n">
-        <v>0</v>
-      </c>
-      <c r="I341" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I341" t="n">
+        <v>2.711</v>
+      </c>
       <c r="J341" t="inlineStr"/>
       <c r="K341" t="inlineStr">
         <is>
@@ -11681,7 +11699,7 @@
         <v>28415018.99748161</v>
       </c>
       <c r="H342" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I342" t="n">
         <v>2.75</v>
@@ -11720,9 +11738,11 @@
         <v>29380026.41488161</v>
       </c>
       <c r="H343" t="n">
-        <v>0</v>
-      </c>
-      <c r="I343" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I343" t="n">
+        <v>2.722</v>
+      </c>
       <c r="J343" t="inlineStr"/>
       <c r="K343" t="inlineStr">
         <is>
@@ -11757,9 +11777,11 @@
         <v>29056735.41618161</v>
       </c>
       <c r="H344" t="n">
-        <v>0</v>
-      </c>
-      <c r="I344" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I344" t="n">
+        <v>2.757</v>
+      </c>
       <c r="J344" t="inlineStr"/>
       <c r="K344" t="inlineStr">
         <is>
@@ -11794,9 +11816,11 @@
         <v>28698584.15648161</v>
       </c>
       <c r="H345" t="n">
-        <v>0</v>
-      </c>
-      <c r="I345" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I345" t="n">
+        <v>2.75</v>
+      </c>
       <c r="J345" t="inlineStr"/>
       <c r="K345" t="inlineStr">
         <is>
@@ -11831,9 +11855,11 @@
         <v>28730641.81788161</v>
       </c>
       <c r="H346" t="n">
-        <v>0</v>
-      </c>
-      <c r="I346" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I346" t="n">
+        <v>2.724</v>
+      </c>
       <c r="J346" t="inlineStr"/>
       <c r="K346" t="inlineStr">
         <is>
@@ -11868,9 +11894,11 @@
         <v>30757833.63648161</v>
       </c>
       <c r="H347" t="n">
-        <v>0</v>
-      </c>
-      <c r="I347" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I347" t="n">
+        <v>2.75</v>
+      </c>
       <c r="J347" t="inlineStr"/>
       <c r="K347" t="inlineStr">
         <is>
@@ -13163,9 +13191,11 @@
         <v>29100646.59118161</v>
       </c>
       <c r="H382" t="n">
-        <v>0</v>
-      </c>
-      <c r="I382" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I382" t="n">
+        <v>2.73</v>
+      </c>
       <c r="J382" t="inlineStr"/>
       <c r="K382" t="inlineStr">
         <is>
@@ -13237,9 +13267,11 @@
         <v>29114590.28978161</v>
       </c>
       <c r="H384" t="n">
-        <v>0</v>
-      </c>
-      <c r="I384" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I384" t="n">
+        <v>2.716</v>
+      </c>
       <c r="J384" t="inlineStr"/>
       <c r="K384" t="inlineStr">
         <is>
@@ -13274,9 +13306,11 @@
         <v>28945242.25928161</v>
       </c>
       <c r="H385" t="n">
-        <v>0</v>
-      </c>
-      <c r="I385" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I385" t="n">
+        <v>2.73</v>
+      </c>
       <c r="J385" t="inlineStr"/>
       <c r="K385" t="inlineStr">
         <is>
@@ -13311,9 +13345,11 @@
         <v>28950242.25928161</v>
       </c>
       <c r="H386" t="n">
-        <v>0</v>
-      </c>
-      <c r="I386" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I386" t="n">
+        <v>2.718</v>
+      </c>
       <c r="J386" t="inlineStr"/>
       <c r="K386" t="inlineStr">
         <is>
@@ -13348,9 +13384,11 @@
         <v>28916567.29788161</v>
       </c>
       <c r="H387" t="n">
-        <v>0</v>
-      </c>
-      <c r="I387" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I387" t="n">
+        <v>2.764</v>
+      </c>
       <c r="J387" t="inlineStr"/>
       <c r="K387" t="inlineStr">
         <is>
@@ -13385,9 +13423,11 @@
         <v>28543503.45678161</v>
       </c>
       <c r="H388" t="n">
-        <v>0</v>
-      </c>
-      <c r="I388" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I388" t="n">
+        <v>2.73</v>
+      </c>
       <c r="J388" t="inlineStr"/>
       <c r="K388" t="inlineStr">
         <is>
@@ -13422,9 +13462,11 @@
         <v>28544003.45678161</v>
       </c>
       <c r="H389" t="n">
-        <v>0</v>
-      </c>
-      <c r="I389" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I389" t="n">
+        <v>2.721</v>
+      </c>
       <c r="J389" t="inlineStr"/>
       <c r="K389" t="inlineStr">
         <is>
@@ -13459,9 +13501,11 @@
         <v>28544003.45678161</v>
       </c>
       <c r="H390" t="n">
-        <v>0</v>
-      </c>
-      <c r="I390" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I390" t="n">
+        <v>2.74</v>
+      </c>
       <c r="J390" t="inlineStr"/>
       <c r="K390" t="inlineStr">
         <is>
@@ -13496,9 +13540,11 @@
         <v>28575069.41818161</v>
       </c>
       <c r="H391" t="n">
-        <v>0</v>
-      </c>
-      <c r="I391" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I391" t="n">
+        <v>2.74</v>
+      </c>
       <c r="J391" t="inlineStr"/>
       <c r="K391" t="inlineStr">
         <is>
@@ -13533,9 +13579,11 @@
         <v>28575069.41818161</v>
       </c>
       <c r="H392" t="n">
-        <v>0</v>
-      </c>
-      <c r="I392" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I392" t="n">
+        <v>2.751</v>
+      </c>
       <c r="J392" t="inlineStr"/>
       <c r="K392" t="inlineStr">
         <is>
@@ -13570,9 +13618,11 @@
         <v>28574736.09338161</v>
       </c>
       <c r="H393" t="n">
-        <v>0</v>
-      </c>
-      <c r="I393" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I393" t="n">
+        <v>2.751</v>
+      </c>
       <c r="J393" t="inlineStr"/>
       <c r="K393" t="inlineStr">
         <is>
@@ -13607,9 +13657,11 @@
         <v>28574736.09338161</v>
       </c>
       <c r="H394" t="n">
-        <v>0</v>
-      </c>
-      <c r="I394" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I394" t="n">
+        <v>2.74</v>
+      </c>
       <c r="J394" t="inlineStr"/>
       <c r="K394" t="inlineStr">
         <is>
@@ -13644,9 +13696,11 @@
         <v>28574736.09338161</v>
       </c>
       <c r="H395" t="n">
-        <v>0</v>
-      </c>
-      <c r="I395" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I395" t="n">
+        <v>2.74</v>
+      </c>
       <c r="J395" t="inlineStr"/>
       <c r="K395" t="inlineStr">
         <is>
@@ -13681,9 +13735,11 @@
         <v>28574736.09338161</v>
       </c>
       <c r="H396" t="n">
-        <v>0</v>
-      </c>
-      <c r="I396" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I396" t="n">
+        <v>2.74</v>
+      </c>
       <c r="J396" t="inlineStr"/>
       <c r="K396" t="inlineStr">
         <is>
@@ -13718,9 +13774,11 @@
         <v>28426109.21418161</v>
       </c>
       <c r="H397" t="n">
-        <v>0</v>
-      </c>
-      <c r="I397" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I397" t="n">
+        <v>2.74</v>
+      </c>
       <c r="J397" t="inlineStr"/>
       <c r="K397" t="inlineStr">
         <is>
@@ -13755,9 +13813,11 @@
         <v>28426109.21418161</v>
       </c>
       <c r="H398" t="n">
-        <v>0</v>
-      </c>
-      <c r="I398" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I398" t="n">
+        <v>2.721</v>
+      </c>
       <c r="J398" t="inlineStr"/>
       <c r="K398" t="inlineStr">
         <is>
@@ -13792,9 +13852,11 @@
         <v>28426109.21418161</v>
       </c>
       <c r="H399" t="n">
-        <v>0</v>
-      </c>
-      <c r="I399" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I399" t="n">
+        <v>2.721</v>
+      </c>
       <c r="J399" t="inlineStr"/>
       <c r="K399" t="inlineStr">
         <is>
@@ -13829,7 +13891,7 @@
         <v>28426609.21418161</v>
       </c>
       <c r="H400" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I400" t="n">
         <v>2.721</v>
@@ -13868,9 +13930,11 @@
         <v>28382783.54028161</v>
       </c>
       <c r="H401" t="n">
-        <v>0</v>
-      </c>
-      <c r="I401" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I401" t="n">
+        <v>2.735</v>
+      </c>
       <c r="J401" t="inlineStr"/>
       <c r="K401" t="inlineStr">
         <is>
@@ -13905,7 +13969,7 @@
         <v>28382783.54028161</v>
       </c>
       <c r="H402" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I402" t="n">
         <v>2.733</v>
@@ -13944,7 +14008,7 @@
         <v>28382783.54028161</v>
       </c>
       <c r="H403" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I403" t="n">
         <v>2.733</v>
@@ -13983,7 +14047,7 @@
         <v>28382783.54028161</v>
       </c>
       <c r="H404" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I404" t="n">
         <v>2.733</v>
@@ -14022,7 +14086,7 @@
         <v>28382783.54028161</v>
       </c>
       <c r="H405" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I405" t="n">
         <v>2.733</v>
@@ -14061,7 +14125,7 @@
         <v>28592093.59488161</v>
       </c>
       <c r="H406" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I406" t="n">
         <v>2.733</v>
@@ -14100,7 +14164,7 @@
         <v>28591649.59488161</v>
       </c>
       <c r="H407" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I407" t="n">
         <v>2.734</v>
@@ -14139,7 +14203,7 @@
         <v>28591649.59488161</v>
       </c>
       <c r="H408" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I408" t="n">
         <v>2.733</v>
@@ -14178,7 +14242,7 @@
         <v>28591649.59488161</v>
       </c>
       <c r="H409" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I409" t="n">
         <v>2.733</v>
@@ -14217,9 +14281,11 @@
         <v>28591649.59488161</v>
       </c>
       <c r="H410" t="n">
-        <v>0</v>
-      </c>
-      <c r="I410" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I410" t="n">
+        <v>2.733</v>
+      </c>
       <c r="J410" t="inlineStr"/>
       <c r="K410" t="inlineStr">
         <is>
@@ -14254,9 +14320,11 @@
         <v>29234107.15768161</v>
       </c>
       <c r="H411" t="n">
-        <v>0</v>
-      </c>
-      <c r="I411" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I411" t="n">
+        <v>2.733</v>
+      </c>
       <c r="J411" t="inlineStr"/>
       <c r="K411" t="inlineStr">
         <is>
@@ -14291,9 +14359,11 @@
         <v>29239107.15768161</v>
       </c>
       <c r="H412" t="n">
-        <v>0</v>
-      </c>
-      <c r="I412" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I412" t="n">
+        <v>2.748</v>
+      </c>
       <c r="J412" t="inlineStr"/>
       <c r="K412" t="inlineStr">
         <is>
@@ -14328,9 +14398,11 @@
         <v>29224510.01788161</v>
       </c>
       <c r="H413" t="n">
-        <v>0</v>
-      </c>
-      <c r="I413" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I413" t="n">
+        <v>2.764</v>
+      </c>
       <c r="J413" t="inlineStr"/>
       <c r="K413" t="inlineStr">
         <is>
@@ -14365,9 +14437,11 @@
         <v>28403900.30258161</v>
       </c>
       <c r="H414" t="n">
-        <v>0</v>
-      </c>
-      <c r="I414" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I414" t="n">
+        <v>2.741</v>
+      </c>
       <c r="J414" t="inlineStr"/>
       <c r="K414" t="inlineStr">
         <is>
@@ -14550,9 +14624,11 @@
         <v>28173621.48468161</v>
       </c>
       <c r="H419" t="n">
-        <v>0</v>
-      </c>
-      <c r="I419" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I419" t="n">
+        <v>2.735</v>
+      </c>
       <c r="J419" t="inlineStr"/>
       <c r="K419" t="inlineStr">
         <is>
@@ -14587,9 +14663,11 @@
         <v>28285569.70998161</v>
       </c>
       <c r="H420" t="n">
-        <v>0</v>
-      </c>
-      <c r="I420" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I420" t="n">
+        <v>2.739</v>
+      </c>
       <c r="J420" t="inlineStr"/>
       <c r="K420" t="inlineStr">
         <is>
@@ -14624,9 +14702,11 @@
         <v>28289121.70998161</v>
       </c>
       <c r="H421" t="n">
-        <v>0</v>
-      </c>
-      <c r="I421" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I421" t="n">
+        <v>2.74</v>
+      </c>
       <c r="J421" t="inlineStr"/>
       <c r="K421" t="inlineStr">
         <is>
@@ -14661,9 +14741,11 @@
         <v>28289121.70998161</v>
       </c>
       <c r="H422" t="n">
-        <v>0</v>
-      </c>
-      <c r="I422" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I422" t="n">
+        <v>2.755</v>
+      </c>
       <c r="J422" t="inlineStr"/>
       <c r="K422" t="inlineStr">
         <is>
@@ -14698,9 +14780,11 @@
         <v>28199121.70998161</v>
       </c>
       <c r="H423" t="n">
-        <v>0</v>
-      </c>
-      <c r="I423" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I423" t="n">
+        <v>2.755</v>
+      </c>
       <c r="J423" t="inlineStr"/>
       <c r="K423" t="inlineStr">
         <is>
@@ -14735,7 +14819,7 @@
         <v>28199121.70998161</v>
       </c>
       <c r="H424" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I424" t="n">
         <v>2.74</v>
@@ -14774,9 +14858,11 @@
         <v>28199121.70998161</v>
       </c>
       <c r="H425" t="n">
-        <v>0</v>
-      </c>
-      <c r="I425" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I425" t="n">
+        <v>2.74</v>
+      </c>
       <c r="J425" t="inlineStr"/>
       <c r="K425" t="inlineStr">
         <is>
@@ -14811,7 +14897,7 @@
         <v>28422275.13418161</v>
       </c>
       <c r="H426" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I426" t="n">
         <v>2.74</v>
@@ -14850,7 +14936,7 @@
         <v>28324789.74908161</v>
       </c>
       <c r="H427" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I427" t="n">
         <v>2.752</v>
@@ -14889,7 +14975,7 @@
         <v>28324789.74908161</v>
       </c>
       <c r="H428" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I428" t="n">
         <v>2.74</v>
@@ -14928,7 +15014,7 @@
         <v>28424777.20003866</v>
       </c>
       <c r="H429" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I429" t="n">
         <v>2.74</v>
@@ -14967,7 +15053,7 @@
         <v>28426777.20003866</v>
       </c>
       <c r="H430" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I430" t="n">
         <v>2.752</v>
@@ -15006,9 +15092,11 @@
         <v>28177310.07253866</v>
       </c>
       <c r="H431" t="n">
-        <v>0</v>
-      </c>
-      <c r="I431" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I431" t="n">
+        <v>2.754</v>
+      </c>
       <c r="J431" t="inlineStr"/>
       <c r="K431" t="inlineStr">
         <is>
@@ -15043,9 +15131,11 @@
         <v>28177310.07253866</v>
       </c>
       <c r="H432" t="n">
-        <v>0</v>
-      </c>
-      <c r="I432" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I432" t="n">
+        <v>2.74</v>
+      </c>
       <c r="J432" t="inlineStr"/>
       <c r="K432" t="inlineStr">
         <is>
@@ -15080,9 +15170,11 @@
         <v>28249732.38703866</v>
       </c>
       <c r="H433" t="n">
-        <v>0</v>
-      </c>
-      <c r="I433" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I433" t="n">
+        <v>2.74</v>
+      </c>
       <c r="J433" t="inlineStr"/>
       <c r="K433" t="inlineStr">
         <is>
@@ -15117,9 +15209,11 @@
         <v>28254732.38703866</v>
       </c>
       <c r="H434" t="n">
-        <v>0</v>
-      </c>
-      <c r="I434" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I434" t="n">
+        <v>2.754</v>
+      </c>
       <c r="J434" t="inlineStr"/>
       <c r="K434" t="inlineStr">
         <is>
@@ -15154,9 +15248,11 @@
         <v>28213600.30523866</v>
       </c>
       <c r="H435" t="n">
-        <v>0</v>
-      </c>
-      <c r="I435" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I435" t="n">
+        <v>2.762</v>
+      </c>
       <c r="J435" t="inlineStr"/>
       <c r="K435" t="inlineStr">
         <is>
@@ -15265,9 +15361,11 @@
         <v>28076007.15603866</v>
       </c>
       <c r="H438" t="n">
-        <v>0</v>
-      </c>
-      <c r="I438" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I438" t="n">
+        <v>2.741</v>
+      </c>
       <c r="J438" t="inlineStr"/>
       <c r="K438" t="inlineStr">
         <is>
@@ -15376,9 +15474,11 @@
         <v>25402675.89233866</v>
       </c>
       <c r="H441" t="n">
-        <v>0</v>
-      </c>
-      <c r="I441" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I441" t="n">
+        <v>2.76</v>
+      </c>
       <c r="J441" t="inlineStr"/>
       <c r="K441" t="inlineStr">
         <is>
@@ -15413,9 +15513,11 @@
         <v>25119871.89233866</v>
       </c>
       <c r="H442" t="n">
-        <v>0</v>
-      </c>
-      <c r="I442" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I442" t="n">
+        <v>2.741</v>
+      </c>
       <c r="J442" t="inlineStr"/>
       <c r="K442" t="inlineStr">
         <is>
@@ -15450,9 +15552,11 @@
         <v>25119871.89233866</v>
       </c>
       <c r="H443" t="n">
-        <v>0</v>
-      </c>
-      <c r="I443" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I443" t="n">
+        <v>2.74</v>
+      </c>
       <c r="J443" t="inlineStr"/>
       <c r="K443" t="inlineStr">
         <is>
@@ -15487,9 +15591,11 @@
         <v>21995833.89233866</v>
       </c>
       <c r="H444" t="n">
-        <v>0</v>
-      </c>
-      <c r="I444" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I444" t="n">
+        <v>2.74</v>
+      </c>
       <c r="J444" t="inlineStr"/>
       <c r="K444" t="inlineStr">
         <is>
@@ -15524,9 +15630,11 @@
         <v>22283286.55243865</v>
       </c>
       <c r="H445" t="n">
-        <v>0</v>
-      </c>
-      <c r="I445" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I445" t="n">
+        <v>2.705</v>
+      </c>
       <c r="J445" t="inlineStr"/>
       <c r="K445" t="inlineStr">
         <is>
@@ -15561,9 +15669,11 @@
         <v>22192842.55243865</v>
       </c>
       <c r="H446" t="n">
-        <v>0</v>
-      </c>
-      <c r="I446" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I446" t="n">
+        <v>2.748</v>
+      </c>
       <c r="J446" t="inlineStr"/>
       <c r="K446" t="inlineStr">
         <is>
@@ -15598,9 +15708,11 @@
         <v>22185207.02163865</v>
       </c>
       <c r="H447" t="n">
-        <v>0</v>
-      </c>
-      <c r="I447" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I447" t="n">
+        <v>2.721</v>
+      </c>
       <c r="J447" t="inlineStr"/>
       <c r="K447" t="inlineStr">
         <is>
@@ -15635,7 +15747,7 @@
         <v>22186095.02163865</v>
       </c>
       <c r="H448" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I448" t="n">
         <v>2.711</v>
@@ -15674,7 +15786,7 @@
         <v>22196550.66933865</v>
       </c>
       <c r="H449" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I449" t="n">
         <v>2.729</v>
@@ -15713,7 +15825,7 @@
         <v>22189746.70433865</v>
       </c>
       <c r="H450" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I450" t="n">
         <v>2.757</v>
@@ -15752,7 +15864,7 @@
         <v>22189746.70433865</v>
       </c>
       <c r="H451" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I451" t="n">
         <v>2.723</v>
@@ -15791,7 +15903,7 @@
         <v>22189746.70433865</v>
       </c>
       <c r="H452" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I452" t="n">
         <v>2.723</v>
@@ -15830,7 +15942,7 @@
         <v>22221078.70433865</v>
       </c>
       <c r="H453" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I453" t="n">
         <v>2.723</v>
@@ -15869,7 +15981,7 @@
         <v>22615262.82133865</v>
       </c>
       <c r="H454" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I454" t="n">
         <v>2.729</v>
@@ -15908,7 +16020,7 @@
         <v>22616762.82133865</v>
       </c>
       <c r="H455" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I455" t="n">
         <v>2.731</v>
@@ -15947,7 +16059,7 @@
         <v>23081817.45803865</v>
       </c>
       <c r="H456" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I456" t="n">
         <v>2.751</v>
@@ -15986,7 +16098,7 @@
         <v>23081817.45803865</v>
       </c>
       <c r="H457" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I457" t="n">
         <v>2.758</v>
@@ -16025,9 +16137,11 @@
         <v>23070666.86163865</v>
       </c>
       <c r="H458" t="n">
-        <v>0</v>
-      </c>
-      <c r="I458" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I458" t="n">
+        <v>2.758</v>
+      </c>
       <c r="J458" t="inlineStr"/>
       <c r="K458" t="inlineStr">
         <is>
@@ -16062,9 +16176,11 @@
         <v>23070666.86163865</v>
       </c>
       <c r="H459" t="n">
-        <v>0</v>
-      </c>
-      <c r="I459" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I459" t="n">
+        <v>2.757</v>
+      </c>
       <c r="J459" t="inlineStr"/>
       <c r="K459" t="inlineStr">
         <is>
@@ -16099,9 +16215,11 @@
         <v>22908975.70483866</v>
       </c>
       <c r="H460" t="n">
-        <v>0</v>
-      </c>
-      <c r="I460" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I460" t="n">
+        <v>2.757</v>
+      </c>
       <c r="J460" t="inlineStr"/>
       <c r="K460" t="inlineStr">
         <is>
@@ -16136,9 +16254,11 @@
         <v>22908975.70483866</v>
       </c>
       <c r="H461" t="n">
-        <v>0</v>
-      </c>
-      <c r="I461" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I461" t="n">
+        <v>2.74</v>
+      </c>
       <c r="J461" t="inlineStr"/>
       <c r="K461" t="inlineStr">
         <is>
@@ -16173,9 +16293,11 @@
         <v>23558913.76193866</v>
       </c>
       <c r="H462" t="n">
-        <v>0</v>
-      </c>
-      <c r="I462" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I462" t="n">
+        <v>2.74</v>
+      </c>
       <c r="J462" t="inlineStr"/>
       <c r="K462" t="inlineStr">
         <is>
@@ -16247,9 +16369,11 @@
         <v>23558913.76193866</v>
       </c>
       <c r="H464" t="n">
-        <v>0</v>
-      </c>
-      <c r="I464" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I464" t="n">
+        <v>2.755</v>
+      </c>
       <c r="J464" t="inlineStr"/>
       <c r="K464" t="inlineStr">
         <is>
@@ -16358,9 +16482,11 @@
         <v>23512295.34233866</v>
       </c>
       <c r="H467" t="n">
-        <v>0</v>
-      </c>
-      <c r="I467" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I467" t="n">
+        <v>2.74</v>
+      </c>
       <c r="J467" t="inlineStr"/>
       <c r="K467" t="inlineStr">
         <is>
@@ -16395,9 +16521,11 @@
         <v>23512295.34233866</v>
       </c>
       <c r="H468" t="n">
-        <v>0</v>
-      </c>
-      <c r="I468" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I468" t="n">
+        <v>2.74</v>
+      </c>
       <c r="J468" t="inlineStr"/>
       <c r="K468" t="inlineStr">
         <is>
@@ -16432,9 +16560,11 @@
         <v>23343041.43913866</v>
       </c>
       <c r="H469" t="n">
-        <v>0</v>
-      </c>
-      <c r="I469" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I469" t="n">
+        <v>2.74</v>
+      </c>
       <c r="J469" t="inlineStr"/>
       <c r="K469" t="inlineStr">
         <is>
@@ -16469,9 +16599,11 @@
         <v>23173343.53583866</v>
       </c>
       <c r="H470" t="n">
-        <v>0</v>
-      </c>
-      <c r="I470" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I470" t="n">
+        <v>2.735</v>
+      </c>
       <c r="J470" t="inlineStr"/>
       <c r="K470" t="inlineStr">
         <is>
@@ -16506,7 +16638,7 @@
         <v>23173343.53583866</v>
       </c>
       <c r="H471" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I471" t="n">
         <v>2.723</v>
@@ -16545,7 +16677,7 @@
         <v>23290186.82703866</v>
       </c>
       <c r="H472" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I472" t="n">
         <v>2.723</v>
@@ -16584,7 +16716,7 @@
         <v>23340034.47903866</v>
       </c>
       <c r="H473" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I473" t="n">
         <v>2.727</v>
@@ -16623,7 +16755,7 @@
         <v>23338407.4482205</v>
       </c>
       <c r="H474" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I474" t="n">
         <v>2.753</v>
@@ -16662,9 +16794,11 @@
         <v>20303323.0897205</v>
       </c>
       <c r="H475" t="n">
-        <v>0</v>
-      </c>
-      <c r="I475" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I475" t="n">
+        <v>2.74</v>
+      </c>
       <c r="J475" t="inlineStr"/>
       <c r="K475" t="inlineStr">
         <is>
@@ -16699,9 +16833,11 @@
         <v>21104301.5182205</v>
       </c>
       <c r="H476" t="n">
-        <v>0</v>
-      </c>
-      <c r="I476" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I476" t="n">
+        <v>2.725</v>
+      </c>
       <c r="J476" t="inlineStr"/>
       <c r="K476" t="inlineStr">
         <is>
@@ -16736,9 +16872,11 @@
         <v>21104070.4092205</v>
       </c>
       <c r="H477" t="n">
-        <v>0</v>
-      </c>
-      <c r="I477" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I477" t="n">
+        <v>2.739</v>
+      </c>
       <c r="J477" t="inlineStr"/>
       <c r="K477" t="inlineStr">
         <is>
@@ -16773,9 +16911,11 @@
         <v>20432000.2980205</v>
       </c>
       <c r="H478" t="n">
-        <v>0</v>
-      </c>
-      <c r="I478" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I478" t="n">
+        <v>2.733</v>
+      </c>
       <c r="J478" t="inlineStr"/>
       <c r="K478" t="inlineStr">
         <is>
@@ -16810,9 +16950,11 @@
         <v>21634638.8727205</v>
       </c>
       <c r="H479" t="n">
-        <v>0</v>
-      </c>
-      <c r="I479" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I479" t="n">
+        <v>2.715</v>
+      </c>
       <c r="J479" t="inlineStr"/>
       <c r="K479" t="inlineStr">
         <is>
@@ -16847,9 +16989,11 @@
         <v>21640624.7052205</v>
       </c>
       <c r="H480" t="n">
-        <v>0</v>
-      </c>
-      <c r="I480" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I480" t="n">
+        <v>2.729</v>
+      </c>
       <c r="J480" t="inlineStr"/>
       <c r="K480" t="inlineStr">
         <is>
@@ -16884,7 +17028,7 @@
         <v>21640624.7052205</v>
       </c>
       <c r="H481" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I481" t="n">
         <v>2.737</v>
@@ -16923,7 +17067,7 @@
         <v>21834630.2181205</v>
       </c>
       <c r="H482" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I482" t="n">
         <v>2.737</v>
@@ -16962,9 +17106,11 @@
         <v>22068303.1730205</v>
       </c>
       <c r="H483" t="n">
-        <v>0</v>
-      </c>
-      <c r="I483" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I483" t="n">
+        <v>2.74</v>
+      </c>
       <c r="J483" t="inlineStr"/>
       <c r="K483" t="inlineStr">
         <is>
@@ -16999,9 +17145,11 @@
         <v>22068303.1730205</v>
       </c>
       <c r="H484" t="n">
-        <v>0</v>
-      </c>
-      <c r="I484" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I484" t="n">
+        <v>2.745</v>
+      </c>
       <c r="J484" t="inlineStr"/>
       <c r="K484" t="inlineStr">
         <is>
@@ -17036,9 +17184,11 @@
         <v>22068303.1730205</v>
       </c>
       <c r="H485" t="n">
-        <v>0</v>
-      </c>
-      <c r="I485" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I485" t="n">
+        <v>2.745</v>
+      </c>
       <c r="J485" t="inlineStr"/>
       <c r="K485" t="inlineStr">
         <is>
@@ -17073,9 +17223,11 @@
         <v>22166606.0108205</v>
       </c>
       <c r="H486" t="n">
-        <v>0</v>
-      </c>
-      <c r="I486" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I486" t="n">
+        <v>2.745</v>
+      </c>
       <c r="J486" t="inlineStr"/>
       <c r="K486" t="inlineStr">
         <is>
@@ -17110,9 +17262,11 @@
         <v>22166606.0108205</v>
       </c>
       <c r="H487" t="n">
-        <v>0</v>
-      </c>
-      <c r="I487" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I487" t="n">
+        <v>2.747</v>
+      </c>
       <c r="J487" t="inlineStr"/>
       <c r="K487" t="inlineStr">
         <is>
@@ -17147,9 +17301,11 @@
         <v>22250031.9372205</v>
       </c>
       <c r="H488" t="n">
-        <v>0</v>
-      </c>
-      <c r="I488" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I488" t="n">
+        <v>2.747</v>
+      </c>
       <c r="J488" t="inlineStr"/>
       <c r="K488" t="inlineStr">
         <is>
@@ -17184,11 +17340,9 @@
         <v>22250031.9372205</v>
       </c>
       <c r="H489" t="n">
-        <v>2</v>
-      </c>
-      <c r="I489" t="n">
-        <v>2.749</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I489" t="inlineStr"/>
       <c r="J489" t="inlineStr"/>
       <c r="K489" t="inlineStr">
         <is>
@@ -17223,11 +17377,9 @@
         <v>22435320.80952049</v>
       </c>
       <c r="H490" t="n">
-        <v>2</v>
-      </c>
-      <c r="I490" t="n">
-        <v>2.749</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I490" t="inlineStr"/>
       <c r="J490" t="inlineStr"/>
       <c r="K490" t="inlineStr">
         <is>
@@ -17336,9 +17488,11 @@
         <v>23355629.6719205</v>
       </c>
       <c r="H493" t="n">
-        <v>0</v>
-      </c>
-      <c r="I493" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I493" t="n">
+        <v>2.758</v>
+      </c>
       <c r="J493" t="inlineStr"/>
       <c r="K493" t="inlineStr">
         <is>
@@ -17373,9 +17527,11 @@
         <v>23355629.6719205</v>
       </c>
       <c r="H494" t="n">
-        <v>0</v>
-      </c>
-      <c r="I494" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I494" t="n">
+        <v>2.75</v>
+      </c>
       <c r="J494" t="inlineStr"/>
       <c r="K494" t="inlineStr">
         <is>
@@ -17410,9 +17566,11 @@
         <v>23355629.6719205</v>
       </c>
       <c r="H495" t="n">
-        <v>0</v>
-      </c>
-      <c r="I495" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I495" t="n">
+        <v>2.75</v>
+      </c>
       <c r="J495" t="inlineStr"/>
       <c r="K495" t="inlineStr">
         <is>
@@ -17447,7 +17605,7 @@
         <v>23355629.6719205</v>
       </c>
       <c r="H496" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I496" t="n">
         <v>2.75</v>
@@ -17486,9 +17644,11 @@
         <v>23355629.6719205</v>
       </c>
       <c r="H497" t="n">
-        <v>0</v>
-      </c>
-      <c r="I497" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I497" t="n">
+        <v>2.75</v>
+      </c>
       <c r="J497" t="inlineStr"/>
       <c r="K497" t="inlineStr">
         <is>
@@ -17523,9 +17683,11 @@
         <v>23355629.6719205</v>
       </c>
       <c r="H498" t="n">
-        <v>0</v>
-      </c>
-      <c r="I498" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I498" t="n">
+        <v>2.75</v>
+      </c>
       <c r="J498" t="inlineStr"/>
       <c r="K498" t="inlineStr">
         <is>
@@ -17560,9 +17722,11 @@
         <v>23355629.6719205</v>
       </c>
       <c r="H499" t="n">
-        <v>0</v>
-      </c>
-      <c r="I499" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I499" t="n">
+        <v>2.75</v>
+      </c>
       <c r="J499" t="inlineStr"/>
       <c r="K499" t="inlineStr">
         <is>
@@ -17597,7 +17761,7 @@
         <v>23229828.0259205</v>
       </c>
       <c r="H500" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I500" t="n">
         <v>2.75</v>
@@ -17636,9 +17800,11 @@
         <v>23229828.0259205</v>
       </c>
       <c r="H501" t="n">
-        <v>0</v>
-      </c>
-      <c r="I501" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I501" t="n">
+        <v>2.749</v>
+      </c>
       <c r="J501" t="inlineStr"/>
       <c r="K501" t="inlineStr">
         <is>
@@ -17673,9 +17839,11 @@
         <v>23229606.0259205</v>
       </c>
       <c r="H502" t="n">
-        <v>0</v>
-      </c>
-      <c r="I502" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I502" t="n">
+        <v>2.749</v>
+      </c>
       <c r="J502" t="inlineStr"/>
       <c r="K502" t="inlineStr">
         <is>
@@ -17710,9 +17878,11 @@
         <v>23229606.0259205</v>
       </c>
       <c r="H503" t="n">
-        <v>0</v>
-      </c>
-      <c r="I503" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I503" t="n">
+        <v>2.74</v>
+      </c>
       <c r="J503" t="inlineStr"/>
       <c r="K503" t="inlineStr">
         <is>
@@ -17747,9 +17917,11 @@
         <v>22882871.70242861</v>
       </c>
       <c r="H504" t="n">
-        <v>0</v>
-      </c>
-      <c r="I504" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I504" t="n">
+        <v>2.74</v>
+      </c>
       <c r="J504" t="inlineStr"/>
       <c r="K504" t="inlineStr">
         <is>
@@ -17784,7 +17956,7 @@
         <v>22882871.70242861</v>
       </c>
       <c r="H505" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I505" t="n">
         <v>2.739</v>
@@ -17823,7 +17995,7 @@
         <v>22882871.70242861</v>
       </c>
       <c r="H506" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I506" t="n">
         <v>2.739</v>
@@ -17862,7 +18034,7 @@
         <v>22882966.70242861</v>
       </c>
       <c r="H507" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I507" t="n">
         <v>2.739</v>
@@ -17901,9 +18073,11 @@
         <v>22699339.03082861</v>
       </c>
       <c r="H508" t="n">
-        <v>0</v>
-      </c>
-      <c r="I508" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I508" t="n">
+        <v>2.746</v>
+      </c>
       <c r="J508" t="inlineStr"/>
       <c r="K508" t="inlineStr">
         <is>
@@ -17938,9 +18112,11 @@
         <v>22701157.03082861</v>
       </c>
       <c r="H509" t="n">
-        <v>0</v>
-      </c>
-      <c r="I509" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I509" t="n">
+        <v>2.738</v>
+      </c>
       <c r="J509" t="inlineStr"/>
       <c r="K509" t="inlineStr">
         <is>
@@ -17975,9 +18151,11 @@
         <v>22701157.03082861</v>
       </c>
       <c r="H510" t="n">
-        <v>0</v>
-      </c>
-      <c r="I510" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I510" t="n">
+        <v>2.74</v>
+      </c>
       <c r="J510" t="inlineStr"/>
       <c r="K510" t="inlineStr">
         <is>
@@ -18012,9 +18190,11 @@
         <v>22701157.03082861</v>
       </c>
       <c r="H511" t="n">
-        <v>0</v>
-      </c>
-      <c r="I511" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I511" t="n">
+        <v>2.74</v>
+      </c>
       <c r="J511" t="inlineStr"/>
       <c r="K511" t="inlineStr">
         <is>
@@ -18049,9 +18229,11 @@
         <v>22702157.03082861</v>
       </c>
       <c r="H512" t="n">
-        <v>0</v>
-      </c>
-      <c r="I512" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I512" t="n">
+        <v>2.74</v>
+      </c>
       <c r="J512" t="inlineStr"/>
       <c r="K512" t="inlineStr">
         <is>
@@ -18086,9 +18268,11 @@
         <v>22702157.03082861</v>
       </c>
       <c r="H513" t="n">
-        <v>0</v>
-      </c>
-      <c r="I513" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I513" t="n">
+        <v>2.748</v>
+      </c>
       <c r="J513" t="inlineStr"/>
       <c r="K513" t="inlineStr">
         <is>
@@ -18123,9 +18307,11 @@
         <v>22608489.69012861</v>
       </c>
       <c r="H514" t="n">
-        <v>0</v>
-      </c>
-      <c r="I514" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I514" t="n">
+        <v>2.748</v>
+      </c>
       <c r="J514" t="inlineStr"/>
       <c r="K514" t="inlineStr">
         <is>
@@ -18160,7 +18346,7 @@
         <v>22790546.98382861</v>
       </c>
       <c r="H515" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I515" t="n">
         <v>2.746</v>
@@ -18199,7 +18385,7 @@
         <v>22790546.98382861</v>
       </c>
       <c r="H516" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I516" t="n">
         <v>2.748</v>
@@ -18238,9 +18424,11 @@
         <v>22490546.98382861</v>
       </c>
       <c r="H517" t="n">
-        <v>0</v>
-      </c>
-      <c r="I517" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I517" t="n">
+        <v>2.748</v>
+      </c>
       <c r="J517" t="inlineStr"/>
       <c r="K517" t="inlineStr">
         <is>
@@ -18275,9 +18463,11 @@
         <v>22490736.98382861</v>
       </c>
       <c r="H518" t="n">
-        <v>0</v>
-      </c>
-      <c r="I518" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I518" t="n">
+        <v>2.721</v>
+      </c>
       <c r="J518" t="inlineStr"/>
       <c r="K518" t="inlineStr">
         <is>
@@ -18312,9 +18502,11 @@
         <v>22342853.48702861</v>
       </c>
       <c r="H519" t="n">
-        <v>0</v>
-      </c>
-      <c r="I519" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I519" t="n">
+        <v>2.742</v>
+      </c>
       <c r="J519" t="inlineStr"/>
       <c r="K519" t="inlineStr">
         <is>
@@ -18349,9 +18541,11 @@
         <v>22342853.48702861</v>
       </c>
       <c r="H520" t="n">
-        <v>0</v>
-      </c>
-      <c r="I520" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I520" t="n">
+        <v>2.74</v>
+      </c>
       <c r="J520" t="inlineStr"/>
       <c r="K520" t="inlineStr">
         <is>
@@ -18386,7 +18580,7 @@
         <v>22342853.48702861</v>
       </c>
       <c r="H521" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I521" t="n">
         <v>2.74</v>
@@ -18425,7 +18619,7 @@
         <v>22342616.54132861</v>
       </c>
       <c r="H522" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I522" t="n">
         <v>2.74</v>
@@ -18464,7 +18658,7 @@
         <v>22342616.54132861</v>
       </c>
       <c r="H523" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I523" t="n">
         <v>2.739</v>
@@ -18503,7 +18697,7 @@
         <v>22342616.54132861</v>
       </c>
       <c r="H524" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I524" t="n">
         <v>2.739</v>
@@ -18542,7 +18736,7 @@
         <v>22342616.54132861</v>
       </c>
       <c r="H525" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I525" t="n">
         <v>2.739</v>
@@ -18581,7 +18775,7 @@
         <v>22342616.54132861</v>
       </c>
       <c r="H526" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I526" t="n">
         <v>2.739</v>
@@ -18620,7 +18814,7 @@
         <v>22342616.54132861</v>
       </c>
       <c r="H527" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I527" t="n">
         <v>2.739</v>
@@ -18659,7 +18853,7 @@
         <v>22354623.39562861</v>
       </c>
       <c r="H528" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I528" t="n">
         <v>2.739</v>
@@ -18698,7 +18892,7 @@
         <v>22356441.39562861</v>
       </c>
       <c r="H529" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I529" t="n">
         <v>2.74</v>
@@ -18737,7 +18931,7 @@
         <v>22360077.39562861</v>
       </c>
       <c r="H530" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I530" t="n">
         <v>2.741</v>
@@ -18776,7 +18970,7 @@
         <v>22360267.39562861</v>
       </c>
       <c r="H531" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I531" t="n">
         <v>2.743</v>
@@ -18815,7 +19009,7 @@
         <v>22360267.39562861</v>
       </c>
       <c r="H532" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I532" t="n">
         <v>2.744</v>
@@ -18854,7 +19048,7 @@
         <v>22360267.39562861</v>
       </c>
       <c r="H533" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I533" t="n">
         <v>2.744</v>
@@ -18893,7 +19087,7 @@
         <v>22394446.48482861</v>
       </c>
       <c r="H534" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I534" t="n">
         <v>2.744</v>
@@ -18932,7 +19126,7 @@
         <v>22394446.48482861</v>
       </c>
       <c r="H535" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I535" t="n">
         <v>2.746</v>
@@ -18971,7 +19165,7 @@
         <v>22311479.02002861</v>
       </c>
       <c r="H536" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I536" t="n">
         <v>2.746</v>
@@ -18988,6 +19182,6 @@
       <c r="M536" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-14 BackTest FNB.xlsx
+++ b/BackTest/2020-01-14 BackTest FNB.xlsx
@@ -451,7 +451,7 @@
         <v>-5849655.1344</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-5849655.1344</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-5849483.5903</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-5849483.5903</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-5849829.5903</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-5849483.2352</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-5840254.0583</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-5861372.2571</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-5854680.8675</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-5854680.8675</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-5855110.8675</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-5854938.3687</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-5854938.3687</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-5856238.5198</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>-5857349.5198</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>-5920919.1772</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>-5885402.5865</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>-5885402.5865</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>-5882902.5865</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>-5839745.8941</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>-5839745.8941</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>-6290760.736500001</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>-6290760.736500001</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>-6290760.736500001</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>-6276310.541300001</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>-6249872.736500001</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>-6520815.4246</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>-6520315.4246</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>-6520537.4246</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>-6520537.4246</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>-6520537.4246</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>-6547589.53</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>-6772911.6747</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>-6778050.848900001</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>-6778050.848900001</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>-6776550.848900001</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>-6965512.671300001</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2068,10 +2068,14 @@
         <v>-6965335.671300001</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I51" t="n">
+        <v>2.901</v>
+      </c>
+      <c r="J51" t="n">
+        <v>2.901</v>
+      </c>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
         <v>1</v>
@@ -2104,8 +2108,14 @@
         <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>2.901</v>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2134,11 +2144,19 @@
         <v>-6861958.7071</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I53" t="n">
+        <v>2.901</v>
+      </c>
+      <c r="J53" t="n">
+        <v>2.901</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2167,10 +2185,14 @@
         <v>-6861781.7071</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I54" t="n">
+        <v>2.902</v>
+      </c>
+      <c r="J54" t="n">
+        <v>2.902</v>
+      </c>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
         <v>1</v>
@@ -2200,11 +2222,19 @@
         <v>-6862225.7071</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I55" t="n">
+        <v>2.907</v>
+      </c>
+      <c r="J55" t="n">
+        <v>2.902</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2233,11 +2263,19 @@
         <v>-6867225.7071</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I56" t="n">
+        <v>2.904</v>
+      </c>
+      <c r="J56" t="n">
+        <v>2.902</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2266,11 +2304,19 @@
         <v>-6867048.7071</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>2.895</v>
+      </c>
+      <c r="J57" t="n">
+        <v>2.902</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2299,11 +2345,17 @@
         <v>-6869441.7037</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>2.902</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2332,11 +2384,19 @@
         <v>-6923584.6929</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>2.894</v>
+      </c>
+      <c r="J59" t="n">
+        <v>2.902</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2365,11 +2425,19 @@
         <v>-6924205.6929</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I60" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="J60" t="n">
+        <v>2.902</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2398,11 +2466,19 @@
         <v>-6924205.6929</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I61" t="n">
+        <v>2.886</v>
+      </c>
+      <c r="J61" t="n">
+        <v>2.902</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2431,11 +2507,19 @@
         <v>-6924649.6929</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I62" t="n">
+        <v>2.886</v>
+      </c>
+      <c r="J62" t="n">
+        <v>2.902</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2464,11 +2548,19 @@
         <v>-6924205.6929</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I63" t="n">
+        <v>2.883</v>
+      </c>
+      <c r="J63" t="n">
+        <v>2.902</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2497,11 +2589,19 @@
         <v>-6924205.6929</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I64" t="n">
+        <v>2.885</v>
+      </c>
+      <c r="J64" t="n">
+        <v>2.902</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2530,11 +2630,19 @@
         <v>-6920653.6929</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>2.885</v>
+      </c>
+      <c r="J65" t="n">
+        <v>2.902</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2563,11 +2671,17 @@
         <v>-6911650.6929</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>2.902</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2596,13 +2710,19 @@
         <v>-6911650.6929</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>2.902</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L67" t="n">
-        <v>1</v>
+        <v>0.9981013094417642</v>
       </c>
       <c r="M67" t="inlineStr"/>
     </row>
@@ -2629,7 +2749,7 @@
         <v>-6911650.6929</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2782,7 @@
         <v>-6911850.6929</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2815,7 @@
         <v>-7046535.8621</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,10 +2848,14 @@
         <v>-7046091.8621</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>2.885</v>
+      </c>
+      <c r="J71" t="n">
+        <v>2.885</v>
+      </c>
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
         <v>1</v>
@@ -2761,11 +2885,19 @@
         <v>-7045447.8621</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I72" t="n">
+        <v>2.901</v>
+      </c>
+      <c r="J72" t="n">
+        <v>2.885</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -2794,11 +2926,19 @@
         <v>-7045447.8621</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I73" t="n">
+        <v>2.905</v>
+      </c>
+      <c r="J73" t="n">
+        <v>2.885</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -2827,7 +2967,7 @@
         <v>-7045647.8621</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,11 +3000,17 @@
         <v>-7046091.9872</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I75" t="n">
+        <v>2.904</v>
+      </c>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -2893,11 +3039,17 @@
         <v>-7416091.9872</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I76" t="n">
+        <v>2.903</v>
+      </c>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -2926,11 +3078,17 @@
         <v>-7407869.9872</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I77" t="n">
+        <v>2.885</v>
+      </c>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -2959,11 +3117,17 @@
         <v>-7434747.4045</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I78" t="n">
+        <v>2.9</v>
+      </c>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -2992,11 +3156,17 @@
         <v>-7434747.4045</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I79" t="n">
+        <v>2.88</v>
+      </c>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3025,11 +3195,17 @@
         <v>-7434747.4045</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I80" t="n">
+        <v>2.88</v>
+      </c>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3058,11 +3234,17 @@
         <v>-7434747.4045</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>2.88</v>
+      </c>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3091,11 +3273,17 @@
         <v>-8398749.354900001</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>2.88</v>
+      </c>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3124,11 +3312,17 @@
         <v>-8398749.354900001</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I83" t="n">
+        <v>2.863</v>
+      </c>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3157,11 +3351,17 @@
         <v>-8398749.354900001</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I84" t="n">
+        <v>2.863</v>
+      </c>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3190,11 +3390,17 @@
         <v>-8398574.354900001</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I85" t="n">
+        <v>2.863</v>
+      </c>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3223,11 +3429,17 @@
         <v>-8398796.354900001</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I86" t="n">
+        <v>2.874</v>
+      </c>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3256,11 +3468,17 @@
         <v>-8344066.678800001</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I87" t="n">
+        <v>2.87</v>
+      </c>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3289,11 +3507,17 @@
         <v>-8970500.404900001</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I88" t="n">
+        <v>2.877</v>
+      </c>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3322,11 +3546,17 @@
         <v>-8970500.404900001</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I89" t="n">
+        <v>2.863</v>
+      </c>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3355,11 +3585,17 @@
         <v>-8906651.198400002</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I90" t="n">
+        <v>2.863</v>
+      </c>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3388,11 +3624,17 @@
         <v>-8024814.098100002</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I91" t="n">
+        <v>2.879</v>
+      </c>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3421,11 +3663,17 @@
         <v>-8053280.283300002</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I92" t="n">
+        <v>2.912</v>
+      </c>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3454,11 +3702,17 @@
         <v>-8052319.154500002</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I93" t="n">
+        <v>2.88</v>
+      </c>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3487,11 +3741,17 @@
         <v>-7015741.587100002</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I94" t="n">
+        <v>2.9</v>
+      </c>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3520,14 +3780,16 @@
         <v>-7015741.587100002</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L95" t="inlineStr"/>
       <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
@@ -3553,7 +3815,7 @@
         <v>-6956875.169800002</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3586,7 +3848,7 @@
         <v>-6956875.169800002</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3619,7 +3881,7 @@
         <v>-7036852.766900002</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3652,10 +3914,14 @@
         <v>-6945161.568500002</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I99" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="J99" t="n">
+        <v>2.88</v>
+      </c>
       <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
         <v>1</v>
@@ -3688,8 +3954,14 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3718,11 +3990,19 @@
         <v>-6921640.355500002</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I101" t="n">
+        <v>2.866</v>
+      </c>
+      <c r="J101" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -3751,11 +4031,19 @@
         <v>-7174833.290000003</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I102" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="J102" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -3784,11 +4072,19 @@
         <v>-7175008.302000003</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I103" t="n">
+        <v>2.866</v>
+      </c>
+      <c r="J103" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -3817,11 +4113,19 @@
         <v>-7142989.171800003</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I104" t="n">
+        <v>2.861</v>
+      </c>
+      <c r="J104" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -3853,8 +4157,14 @@
         <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -3886,8 +4196,14 @@
         <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -3919,8 +4235,14 @@
         <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -3952,8 +4274,14 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -3985,8 +4313,14 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4018,8 +4352,14 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4051,8 +4391,14 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4084,8 +4430,14 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4117,8 +4469,14 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4150,8 +4508,14 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4183,8 +4547,14 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4216,8 +4586,14 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4249,8 +4625,14 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4282,8 +4664,14 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4315,8 +4703,14 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4348,8 +4742,14 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4381,8 +4781,14 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4414,8 +4820,14 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4447,8 +4859,14 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4480,8 +4898,14 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4513,8 +4937,14 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4546,8 +4976,14 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4579,8 +5015,14 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4612,8 +5054,14 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4645,8 +5093,14 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -4678,8 +5132,14 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -4711,8 +5171,14 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -4744,8 +5210,14 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -4777,8 +5249,14 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -4810,8 +5288,14 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -4843,8 +5327,14 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -4876,8 +5366,14 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -4909,8 +5405,14 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -4942,8 +5444,14 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -4975,8 +5483,14 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5008,8 +5522,14 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5041,8 +5561,14 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5074,8 +5600,14 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5107,8 +5639,14 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5140,8 +5678,14 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5170,13 +5714,19 @@
         <v>-8241678.07736517</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L145" t="n">
-        <v>1</v>
+        <v>0.995</v>
       </c>
       <c r="M145" t="inlineStr"/>
     </row>
@@ -5632,11 +6182,17 @@
         <v>-20123783.95839216</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I159" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I159" t="n">
+        <v>2.8</v>
+      </c>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -5665,11 +6221,17 @@
         <v>-20123783.95839216</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
-      </c>
-      <c r="I160" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I160" t="n">
+        <v>2.8</v>
+      </c>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -5698,11 +6260,17 @@
         <v>-20123783.95839216</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
-      </c>
-      <c r="I161" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I161" t="n">
+        <v>2.8</v>
+      </c>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -5731,11 +6299,17 @@
         <v>-20123783.95839216</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
-      </c>
-      <c r="I162" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I162" t="n">
+        <v>2.8</v>
+      </c>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -5764,11 +6338,17 @@
         <v>-19118433.39049216</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
-      </c>
-      <c r="I163" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I163" t="n">
+        <v>2.8</v>
+      </c>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -5801,7 +6381,11 @@
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -5834,7 +6418,11 @@
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -5867,7 +6455,11 @@
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -5900,7 +6492,11 @@
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -5933,7 +6529,11 @@
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -5962,11 +6562,17 @@
         <v>-16520368.75389216</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
-      </c>
-      <c r="I169" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I169" t="n">
+        <v>2.819</v>
+      </c>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6000,10 +6606,12 @@
       <c r="I170" t="n">
         <v>2.83</v>
       </c>
-      <c r="J170" t="n">
-        <v>2.83</v>
-      </c>
-      <c r="K170" t="inlineStr"/>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6037,12 +6645,10 @@
       <c r="I171" t="n">
         <v>2.825</v>
       </c>
-      <c r="J171" t="n">
-        <v>2.83</v>
-      </c>
+      <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L171" t="n">
@@ -6076,9 +6682,7 @@
         <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="n">
-        <v>2.83</v>
-      </c>
+      <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6117,9 +6721,7 @@
       <c r="I173" t="n">
         <v>2.812</v>
       </c>
-      <c r="J173" t="n">
-        <v>2.83</v>
-      </c>
+      <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6153,14 +6755,10 @@
         <v>-16851451.01979217</v>
       </c>
       <c r="H174" t="n">
-        <v>1</v>
-      </c>
-      <c r="I174" t="n">
-        <v>2.813</v>
-      </c>
-      <c r="J174" t="n">
-        <v>2.83</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I174" t="inlineStr"/>
+      <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6194,14 +6792,10 @@
         <v>-25537815.30229217</v>
       </c>
       <c r="H175" t="n">
-        <v>1</v>
-      </c>
-      <c r="I175" t="n">
-        <v>2.813</v>
-      </c>
-      <c r="J175" t="n">
-        <v>2.83</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I175" t="inlineStr"/>
+      <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6238,9 +6832,7 @@
         <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="n">
-        <v>2.83</v>
-      </c>
+      <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6277,9 +6869,7 @@
         <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="n">
-        <v>2.83</v>
-      </c>
+      <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6313,14 +6903,10 @@
         <v>-26390411.16299217</v>
       </c>
       <c r="H178" t="n">
-        <v>1</v>
-      </c>
-      <c r="I178" t="n">
-        <v>2.819</v>
-      </c>
-      <c r="J178" t="n">
-        <v>2.83</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I178" t="inlineStr"/>
+      <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6357,9 +6943,7 @@
         <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="n">
-        <v>2.83</v>
-      </c>
+      <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6396,9 +6980,7 @@
         <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="n">
-        <v>2.83</v>
-      </c>
+      <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6435,9 +7017,7 @@
         <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="n">
-        <v>2.83</v>
-      </c>
+      <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6474,9 +7054,7 @@
         <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="n">
-        <v>2.83</v>
-      </c>
+      <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6513,9 +7091,7 @@
         <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="n">
-        <v>2.83</v>
-      </c>
+      <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6552,9 +7128,7 @@
         <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="n">
-        <v>2.83</v>
-      </c>
+      <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6591,9 +7165,7 @@
         <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="n">
-        <v>2.83</v>
-      </c>
+      <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6630,9 +7202,7 @@
         <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="n">
-        <v>2.83</v>
-      </c>
+      <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6669,9 +7239,7 @@
         <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="n">
-        <v>2.83</v>
-      </c>
+      <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6708,9 +7276,7 @@
         <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="n">
-        <v>2.83</v>
-      </c>
+      <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6747,9 +7313,7 @@
         <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="n">
-        <v>2.83</v>
-      </c>
+      <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6786,9 +7350,7 @@
         <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="n">
-        <v>2.83</v>
-      </c>
+      <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6825,9 +7387,7 @@
         <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="n">
-        <v>2.83</v>
-      </c>
+      <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6864,9 +7424,7 @@
         <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="n">
-        <v>2.83</v>
-      </c>
+      <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6903,9 +7461,7 @@
         <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="n">
-        <v>2.83</v>
-      </c>
+      <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6942,9 +7498,7 @@
         <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="n">
-        <v>2.83</v>
-      </c>
+      <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6981,9 +7535,7 @@
         <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="n">
-        <v>2.83</v>
-      </c>
+      <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7020,9 +7572,7 @@
         <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="n">
-        <v>2.83</v>
-      </c>
+      <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7059,9 +7609,7 @@
         <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="n">
-        <v>2.83</v>
-      </c>
+      <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7098,9 +7646,7 @@
         <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="n">
-        <v>2.83</v>
-      </c>
+      <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7137,9 +7683,7 @@
         <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="n">
-        <v>2.83</v>
-      </c>
+      <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7176,9 +7720,7 @@
         <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="n">
-        <v>2.83</v>
-      </c>
+      <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7215,9 +7757,7 @@
         <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="n">
-        <v>2.83</v>
-      </c>
+      <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7251,20 +7791,16 @@
         <v>63428035.59160785</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="n">
-        <v>2.83</v>
-      </c>
+      <c r="J202" t="inlineStr"/>
       <c r="K202" t="inlineStr">
         <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L202" t="n">
-        <v>1</v>
-      </c>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L202" t="inlineStr"/>
       <c r="M202" t="inlineStr"/>
     </row>
     <row r="203">
@@ -7293,14 +7829,8 @@
         <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="n">
-        <v>2.83</v>
-      </c>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="inlineStr"/>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7332,14 +7862,8 @@
         <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="n">
-        <v>2.83</v>
-      </c>
-      <c r="K204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="inlineStr"/>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7371,14 +7895,8 @@
         <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="n">
-        <v>2.83</v>
-      </c>
-      <c r="K205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="inlineStr"/>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7407,17 +7925,11 @@
         <v>63457813.59160785</v>
       </c>
       <c r="H206" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="n">
-        <v>2.83</v>
-      </c>
-      <c r="K206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J206" t="inlineStr"/>
+      <c r="K206" t="inlineStr"/>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -7446,17 +7958,11 @@
         <v>63457813.59160785</v>
       </c>
       <c r="H207" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="n">
-        <v>2.83</v>
-      </c>
-      <c r="K207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J207" t="inlineStr"/>
+      <c r="K207" t="inlineStr"/>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -7485,17 +7991,11 @@
         <v>63457813.59160785</v>
       </c>
       <c r="H208" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="n">
-        <v>2.83</v>
-      </c>
-      <c r="K208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="inlineStr"/>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -7524,17 +8024,11 @@
         <v>62809893.92080785</v>
       </c>
       <c r="H209" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="n">
-        <v>2.83</v>
-      </c>
-      <c r="K209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J209" t="inlineStr"/>
+      <c r="K209" t="inlineStr"/>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -7566,16 +8060,10 @@
         <v>2</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="n">
-        <v>2.83</v>
-      </c>
-      <c r="K210" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J210" t="inlineStr"/>
+      <c r="K210" t="inlineStr"/>
       <c r="L210" t="n">
-        <v>1.014434628975265</v>
+        <v>1</v>
       </c>
       <c r="M210" t="inlineStr"/>
     </row>
@@ -7767,7 +8255,7 @@
         <v>62564762.40860784</v>
       </c>
       <c r="H216" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
@@ -7800,7 +8288,7 @@
         <v>62565206.40860784</v>
       </c>
       <c r="H217" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
@@ -7833,7 +8321,7 @@
         <v>62565206.40860784</v>
       </c>
       <c r="H218" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
@@ -7866,7 +8354,7 @@
         <v>62535835.92180784</v>
       </c>
       <c r="H219" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
@@ -8361,7 +8849,7 @@
         <v>62162481.44450784</v>
       </c>
       <c r="H234" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
@@ -11694,10 +12182,14 @@
         <v>29142485.12118161</v>
       </c>
       <c r="H335" t="n">
-        <v>0</v>
-      </c>
-      <c r="I335" t="inlineStr"/>
-      <c r="J335" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I335" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="J335" t="n">
+        <v>2.71</v>
+      </c>
       <c r="K335" t="inlineStr"/>
       <c r="L335" t="n">
         <v>1</v>
@@ -11727,11 +12219,19 @@
         <v>29142197.49288161</v>
       </c>
       <c r="H336" t="n">
-        <v>0</v>
-      </c>
-      <c r="I336" t="inlineStr"/>
-      <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I336" t="n">
+        <v>2.759</v>
+      </c>
+      <c r="J336" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="K336" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -11763,8 +12263,14 @@
         <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
-      <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr"/>
+      <c r="J337" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="K337" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -11859,11 +12365,17 @@
         <v>28365455.36128161</v>
       </c>
       <c r="H340" t="n">
-        <v>0</v>
-      </c>
-      <c r="I340" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I340" t="n">
+        <v>2.75</v>
+      </c>
       <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr"/>
+      <c r="K340" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -11892,11 +12404,17 @@
         <v>28415455.36128161</v>
       </c>
       <c r="H341" t="n">
-        <v>0</v>
-      </c>
-      <c r="I341" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I341" t="n">
+        <v>2.711</v>
+      </c>
       <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr"/>
+      <c r="K341" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -11925,11 +12443,17 @@
         <v>28415018.99748161</v>
       </c>
       <c r="H342" t="n">
-        <v>0</v>
-      </c>
-      <c r="I342" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I342" t="n">
+        <v>2.75</v>
+      </c>
       <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr"/>
+      <c r="K342" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -11962,7 +12486,11 @@
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr"/>
+      <c r="K343" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -11995,7 +12523,11 @@
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
-      <c r="K344" t="inlineStr"/>
+      <c r="K344" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -12028,7 +12560,11 @@
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
-      <c r="K345" t="inlineStr"/>
+      <c r="K345" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -12061,7 +12597,11 @@
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
-      <c r="K346" t="inlineStr"/>
+      <c r="K346" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -12094,7 +12634,11 @@
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
-      <c r="K347" t="inlineStr"/>
+      <c r="K347" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -12127,7 +12671,11 @@
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
-      <c r="K348" t="inlineStr"/>
+      <c r="K348" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -12160,7 +12708,11 @@
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
-      <c r="K349" t="inlineStr"/>
+      <c r="K349" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -12193,7 +12745,11 @@
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
-      <c r="K350" t="inlineStr"/>
+      <c r="K350" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -12226,7 +12782,11 @@
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
-      <c r="K351" t="inlineStr"/>
+      <c r="K351" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -12259,7 +12819,11 @@
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
-      <c r="K352" t="inlineStr"/>
+      <c r="K352" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -12292,7 +12856,11 @@
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
-      <c r="K353" t="inlineStr"/>
+      <c r="K353" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -12325,7 +12893,11 @@
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
-      <c r="K354" t="inlineStr"/>
+      <c r="K354" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -12358,7 +12930,11 @@
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
-      <c r="K355" t="inlineStr"/>
+      <c r="K355" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -12391,7 +12967,11 @@
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
-      <c r="K356" t="inlineStr"/>
+      <c r="K356" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -12424,7 +13004,11 @@
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
-      <c r="K357" t="inlineStr"/>
+      <c r="K357" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -12457,7 +13041,11 @@
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
-      <c r="K358" t="inlineStr"/>
+      <c r="K358" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -12490,7 +13078,11 @@
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
-      <c r="K359" t="inlineStr"/>
+      <c r="K359" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -12523,7 +13115,11 @@
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
-      <c r="K360" t="inlineStr"/>
+      <c r="K360" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -12556,7 +13152,11 @@
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
-      <c r="K361" t="inlineStr"/>
+      <c r="K361" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -12589,7 +13189,11 @@
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
-      <c r="K362" t="inlineStr"/>
+      <c r="K362" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -12622,7 +13226,11 @@
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
-      <c r="K363" t="inlineStr"/>
+      <c r="K363" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -12651,11 +13259,17 @@
         <v>30225311.62558161</v>
       </c>
       <c r="H364" t="n">
-        <v>0</v>
-      </c>
-      <c r="I364" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I364" t="n">
+        <v>2.763</v>
+      </c>
       <c r="J364" t="inlineStr"/>
-      <c r="K364" t="inlineStr"/>
+      <c r="K364" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -12688,7 +13302,11 @@
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
-      <c r="K365" t="inlineStr"/>
+      <c r="K365" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -12721,7 +13339,11 @@
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
-      <c r="K366" t="inlineStr"/>
+      <c r="K366" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -12754,7 +13376,11 @@
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
-      <c r="K367" t="inlineStr"/>
+      <c r="K367" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -12787,7 +13413,11 @@
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
-      <c r="K368" t="inlineStr"/>
+      <c r="K368" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -12820,7 +13450,11 @@
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
-      <c r="K369" t="inlineStr"/>
+      <c r="K369" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -12853,7 +13487,11 @@
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
-      <c r="K370" t="inlineStr"/>
+      <c r="K370" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -12886,7 +13524,11 @@
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
-      <c r="K371" t="inlineStr"/>
+      <c r="K371" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L371" t="n">
         <v>1</v>
       </c>
@@ -12919,7 +13561,11 @@
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
-      <c r="K372" t="inlineStr"/>
+      <c r="K372" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -12952,7 +13598,11 @@
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
-      <c r="K373" t="inlineStr"/>
+      <c r="K373" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -12985,7 +13635,11 @@
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
-      <c r="K374" t="inlineStr"/>
+      <c r="K374" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -13018,7 +13672,11 @@
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
-      <c r="K375" t="inlineStr"/>
+      <c r="K375" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L375" t="n">
         <v>1</v>
       </c>
@@ -13051,7 +13709,11 @@
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
-      <c r="K376" t="inlineStr"/>
+      <c r="K376" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L376" t="n">
         <v>1</v>
       </c>
@@ -13084,7 +13746,11 @@
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
-      <c r="K377" t="inlineStr"/>
+      <c r="K377" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L377" t="n">
         <v>1</v>
       </c>
@@ -13117,7 +13783,11 @@
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
-      <c r="K378" t="inlineStr"/>
+      <c r="K378" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L378" t="n">
         <v>1</v>
       </c>
@@ -13150,7 +13820,11 @@
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
-      <c r="K379" t="inlineStr"/>
+      <c r="K379" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L379" t="n">
         <v>1</v>
       </c>
@@ -13183,7 +13857,11 @@
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
-      <c r="K380" t="inlineStr"/>
+      <c r="K380" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L380" t="n">
         <v>1</v>
       </c>
@@ -13216,7 +13894,11 @@
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
-      <c r="K381" t="inlineStr"/>
+      <c r="K381" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L381" t="n">
         <v>1</v>
       </c>
@@ -13249,7 +13931,11 @@
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
-      <c r="K382" t="inlineStr"/>
+      <c r="K382" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L382" t="n">
         <v>1</v>
       </c>
@@ -13282,7 +13968,11 @@
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
-      <c r="K383" t="inlineStr"/>
+      <c r="K383" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L383" t="n">
         <v>1</v>
       </c>
@@ -13311,11 +14001,17 @@
         <v>29114590.28978161</v>
       </c>
       <c r="H384" t="n">
-        <v>0</v>
-      </c>
-      <c r="I384" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I384" t="n">
+        <v>2.716</v>
+      </c>
       <c r="J384" t="inlineStr"/>
-      <c r="K384" t="inlineStr"/>
+      <c r="K384" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L384" t="n">
         <v>1</v>
       </c>
@@ -13344,11 +14040,17 @@
         <v>28945242.25928161</v>
       </c>
       <c r="H385" t="n">
-        <v>0</v>
-      </c>
-      <c r="I385" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I385" t="n">
+        <v>2.73</v>
+      </c>
       <c r="J385" t="inlineStr"/>
-      <c r="K385" t="inlineStr"/>
+      <c r="K385" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L385" t="n">
         <v>1</v>
       </c>
@@ -13377,11 +14079,17 @@
         <v>28950242.25928161</v>
       </c>
       <c r="H386" t="n">
-        <v>0</v>
-      </c>
-      <c r="I386" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I386" t="n">
+        <v>2.718</v>
+      </c>
       <c r="J386" t="inlineStr"/>
-      <c r="K386" t="inlineStr"/>
+      <c r="K386" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L386" t="n">
         <v>1</v>
       </c>
@@ -13414,7 +14122,11 @@
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
-      <c r="K387" t="inlineStr"/>
+      <c r="K387" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L387" t="n">
         <v>1</v>
       </c>
@@ -13447,7 +14159,11 @@
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
-      <c r="K388" t="inlineStr"/>
+      <c r="K388" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -13476,11 +14192,17 @@
         <v>28544003.45678161</v>
       </c>
       <c r="H389" t="n">
-        <v>0</v>
-      </c>
-      <c r="I389" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I389" t="n">
+        <v>2.721</v>
+      </c>
       <c r="J389" t="inlineStr"/>
-      <c r="K389" t="inlineStr"/>
+      <c r="K389" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L389" t="n">
         <v>1</v>
       </c>
@@ -13513,7 +14235,11 @@
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
-      <c r="K390" t="inlineStr"/>
+      <c r="K390" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L390" t="n">
         <v>1</v>
       </c>
@@ -13546,7 +14272,11 @@
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
-      <c r="K391" t="inlineStr"/>
+      <c r="K391" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L391" t="n">
         <v>1</v>
       </c>
@@ -13579,7 +14309,11 @@
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
-      <c r="K392" t="inlineStr"/>
+      <c r="K392" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L392" t="n">
         <v>1</v>
       </c>
@@ -13612,7 +14346,11 @@
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
-      <c r="K393" t="inlineStr"/>
+      <c r="K393" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L393" t="n">
         <v>1</v>
       </c>
@@ -13645,7 +14383,11 @@
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
-      <c r="K394" t="inlineStr"/>
+      <c r="K394" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L394" t="n">
         <v>1</v>
       </c>
@@ -13678,7 +14420,11 @@
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
-      <c r="K395" t="inlineStr"/>
+      <c r="K395" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L395" t="n">
         <v>1</v>
       </c>
@@ -13711,7 +14457,11 @@
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
-      <c r="K396" t="inlineStr"/>
+      <c r="K396" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L396" t="n">
         <v>1</v>
       </c>
@@ -13744,7 +14494,11 @@
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
-      <c r="K397" t="inlineStr"/>
+      <c r="K397" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L397" t="n">
         <v>1</v>
       </c>
@@ -13777,7 +14531,11 @@
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
-      <c r="K398" t="inlineStr"/>
+      <c r="K398" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L398" t="n">
         <v>1</v>
       </c>
@@ -13806,11 +14564,17 @@
         <v>28426109.21418161</v>
       </c>
       <c r="H399" t="n">
-        <v>0</v>
-      </c>
-      <c r="I399" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I399" t="n">
+        <v>2.721</v>
+      </c>
       <c r="J399" t="inlineStr"/>
-      <c r="K399" t="inlineStr"/>
+      <c r="K399" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L399" t="n">
         <v>1</v>
       </c>
@@ -13839,11 +14603,17 @@
         <v>28426609.21418161</v>
       </c>
       <c r="H400" t="n">
-        <v>0</v>
-      </c>
-      <c r="I400" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I400" t="n">
+        <v>2.721</v>
+      </c>
       <c r="J400" t="inlineStr"/>
-      <c r="K400" t="inlineStr"/>
+      <c r="K400" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L400" t="n">
         <v>1</v>
       </c>
@@ -13876,7 +14646,11 @@
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
-      <c r="K401" t="inlineStr"/>
+      <c r="K401" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L401" t="n">
         <v>1</v>
       </c>
@@ -13909,7 +14683,11 @@
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
-      <c r="K402" t="inlineStr"/>
+      <c r="K402" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L402" t="n">
         <v>1</v>
       </c>
@@ -13942,7 +14720,11 @@
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
-      <c r="K403" t="inlineStr"/>
+      <c r="K403" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L403" t="n">
         <v>1</v>
       </c>
@@ -13975,7 +14757,11 @@
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
-      <c r="K404" t="inlineStr"/>
+      <c r="K404" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L404" t="n">
         <v>1</v>
       </c>
@@ -14008,7 +14794,11 @@
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
-      <c r="K405" t="inlineStr"/>
+      <c r="K405" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L405" t="n">
         <v>1</v>
       </c>
@@ -14041,7 +14831,11 @@
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
-      <c r="K406" t="inlineStr"/>
+      <c r="K406" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L406" t="n">
         <v>1</v>
       </c>
@@ -14070,11 +14864,17 @@
         <v>28591649.59488161</v>
       </c>
       <c r="H407" t="n">
-        <v>0</v>
-      </c>
-      <c r="I407" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I407" t="n">
+        <v>2.734</v>
+      </c>
       <c r="J407" t="inlineStr"/>
-      <c r="K407" t="inlineStr"/>
+      <c r="K407" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L407" t="n">
         <v>1</v>
       </c>
@@ -14107,7 +14907,11 @@
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
-      <c r="K408" t="inlineStr"/>
+      <c r="K408" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L408" t="n">
         <v>1</v>
       </c>
@@ -14140,7 +14944,11 @@
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
-      <c r="K409" t="inlineStr"/>
+      <c r="K409" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L409" t="n">
         <v>1</v>
       </c>
@@ -14173,7 +14981,11 @@
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
-      <c r="K410" t="inlineStr"/>
+      <c r="K410" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L410" t="n">
         <v>1</v>
       </c>
@@ -14206,7 +15018,11 @@
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
-      <c r="K411" t="inlineStr"/>
+      <c r="K411" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L411" t="n">
         <v>1</v>
       </c>
@@ -14239,7 +15055,11 @@
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
-      <c r="K412" t="inlineStr"/>
+      <c r="K412" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L412" t="n">
         <v>1</v>
       </c>
@@ -14272,7 +15092,11 @@
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
-      <c r="K413" t="inlineStr"/>
+      <c r="K413" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L413" t="n">
         <v>1</v>
       </c>
@@ -14305,7 +15129,11 @@
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
-      <c r="K414" t="inlineStr"/>
+      <c r="K414" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L414" t="n">
         <v>1</v>
       </c>
@@ -14334,11 +15162,17 @@
         <v>28404400.30258161</v>
       </c>
       <c r="H415" t="n">
-        <v>0</v>
-      </c>
-      <c r="I415" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I415" t="n">
+        <v>2.724</v>
+      </c>
       <c r="J415" t="inlineStr"/>
-      <c r="K415" t="inlineStr"/>
+      <c r="K415" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L415" t="n">
         <v>1</v>
       </c>
@@ -14371,7 +15205,11 @@
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
-      <c r="K416" t="inlineStr"/>
+      <c r="K416" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L416" t="n">
         <v>1</v>
       </c>
@@ -14400,11 +15238,17 @@
         <v>28407523.73828161</v>
       </c>
       <c r="H417" t="n">
-        <v>0</v>
-      </c>
-      <c r="I417" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I417" t="n">
+        <v>2.734</v>
+      </c>
       <c r="J417" t="inlineStr"/>
-      <c r="K417" t="inlineStr"/>
+      <c r="K417" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L417" t="n">
         <v>1</v>
       </c>
@@ -14437,7 +15281,11 @@
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
-      <c r="K418" t="inlineStr"/>
+      <c r="K418" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L418" t="n">
         <v>1</v>
       </c>
@@ -14470,7 +15318,11 @@
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
-      <c r="K419" t="inlineStr"/>
+      <c r="K419" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L419" t="n">
         <v>1</v>
       </c>
@@ -14499,11 +15351,17 @@
         <v>28285569.70998161</v>
       </c>
       <c r="H420" t="n">
-        <v>0</v>
-      </c>
-      <c r="I420" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I420" t="n">
+        <v>2.739</v>
+      </c>
       <c r="J420" t="inlineStr"/>
-      <c r="K420" t="inlineStr"/>
+      <c r="K420" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L420" t="n">
         <v>1</v>
       </c>
@@ -14532,11 +15390,17 @@
         <v>28289121.70998161</v>
       </c>
       <c r="H421" t="n">
-        <v>0</v>
-      </c>
-      <c r="I421" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I421" t="n">
+        <v>2.74</v>
+      </c>
       <c r="J421" t="inlineStr"/>
-      <c r="K421" t="inlineStr"/>
+      <c r="K421" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L421" t="n">
         <v>1</v>
       </c>
@@ -14565,11 +15429,17 @@
         <v>28289121.70998161</v>
       </c>
       <c r="H422" t="n">
-        <v>0</v>
-      </c>
-      <c r="I422" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I422" t="n">
+        <v>2.755</v>
+      </c>
       <c r="J422" t="inlineStr"/>
-      <c r="K422" t="inlineStr"/>
+      <c r="K422" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L422" t="n">
         <v>1</v>
       </c>
@@ -14598,11 +15468,17 @@
         <v>28199121.70998161</v>
       </c>
       <c r="H423" t="n">
-        <v>0</v>
-      </c>
-      <c r="I423" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I423" t="n">
+        <v>2.755</v>
+      </c>
       <c r="J423" t="inlineStr"/>
-      <c r="K423" t="inlineStr"/>
+      <c r="K423" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L423" t="n">
         <v>1</v>
       </c>
@@ -14631,11 +15507,17 @@
         <v>28199121.70998161</v>
       </c>
       <c r="H424" t="n">
-        <v>0</v>
-      </c>
-      <c r="I424" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I424" t="n">
+        <v>2.74</v>
+      </c>
       <c r="J424" t="inlineStr"/>
-      <c r="K424" t="inlineStr"/>
+      <c r="K424" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L424" t="n">
         <v>1</v>
       </c>
@@ -14664,11 +15546,17 @@
         <v>28199121.70998161</v>
       </c>
       <c r="H425" t="n">
-        <v>0</v>
-      </c>
-      <c r="I425" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I425" t="n">
+        <v>2.74</v>
+      </c>
       <c r="J425" t="inlineStr"/>
-      <c r="K425" t="inlineStr"/>
+      <c r="K425" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L425" t="n">
         <v>1</v>
       </c>
@@ -14697,11 +15585,17 @@
         <v>28422275.13418161</v>
       </c>
       <c r="H426" t="n">
-        <v>0</v>
-      </c>
-      <c r="I426" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I426" t="n">
+        <v>2.74</v>
+      </c>
       <c r="J426" t="inlineStr"/>
-      <c r="K426" t="inlineStr"/>
+      <c r="K426" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L426" t="n">
         <v>1</v>
       </c>
@@ -14730,11 +15624,17 @@
         <v>28324789.74908161</v>
       </c>
       <c r="H427" t="n">
-        <v>0</v>
-      </c>
-      <c r="I427" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I427" t="n">
+        <v>2.752</v>
+      </c>
       <c r="J427" t="inlineStr"/>
-      <c r="K427" t="inlineStr"/>
+      <c r="K427" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L427" t="n">
         <v>1</v>
       </c>
@@ -14763,11 +15663,17 @@
         <v>28324789.74908161</v>
       </c>
       <c r="H428" t="n">
-        <v>0</v>
-      </c>
-      <c r="I428" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I428" t="n">
+        <v>2.74</v>
+      </c>
       <c r="J428" t="inlineStr"/>
-      <c r="K428" t="inlineStr"/>
+      <c r="K428" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L428" t="n">
         <v>1</v>
       </c>
@@ -14796,11 +15702,17 @@
         <v>28424777.20003866</v>
       </c>
       <c r="H429" t="n">
-        <v>0</v>
-      </c>
-      <c r="I429" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I429" t="n">
+        <v>2.74</v>
+      </c>
       <c r="J429" t="inlineStr"/>
-      <c r="K429" t="inlineStr"/>
+      <c r="K429" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L429" t="n">
         <v>1</v>
       </c>
@@ -14829,11 +15741,17 @@
         <v>28426777.20003866</v>
       </c>
       <c r="H430" t="n">
-        <v>0</v>
-      </c>
-      <c r="I430" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I430" t="n">
+        <v>2.752</v>
+      </c>
       <c r="J430" t="inlineStr"/>
-      <c r="K430" t="inlineStr"/>
+      <c r="K430" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L430" t="n">
         <v>1</v>
       </c>
@@ -14862,11 +15780,17 @@
         <v>28177310.07253866</v>
       </c>
       <c r="H431" t="n">
-        <v>0</v>
-      </c>
-      <c r="I431" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I431" t="n">
+        <v>2.754</v>
+      </c>
       <c r="J431" t="inlineStr"/>
-      <c r="K431" t="inlineStr"/>
+      <c r="K431" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L431" t="n">
         <v>1</v>
       </c>
@@ -14895,11 +15819,17 @@
         <v>28177310.07253866</v>
       </c>
       <c r="H432" t="n">
-        <v>0</v>
-      </c>
-      <c r="I432" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I432" t="n">
+        <v>2.74</v>
+      </c>
       <c r="J432" t="inlineStr"/>
-      <c r="K432" t="inlineStr"/>
+      <c r="K432" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L432" t="n">
         <v>1</v>
       </c>
@@ -14928,11 +15858,17 @@
         <v>28249732.38703866</v>
       </c>
       <c r="H433" t="n">
-        <v>0</v>
-      </c>
-      <c r="I433" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I433" t="n">
+        <v>2.74</v>
+      </c>
       <c r="J433" t="inlineStr"/>
-      <c r="K433" t="inlineStr"/>
+      <c r="K433" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L433" t="n">
         <v>1</v>
       </c>
@@ -14961,11 +15897,17 @@
         <v>28254732.38703866</v>
       </c>
       <c r="H434" t="n">
-        <v>0</v>
-      </c>
-      <c r="I434" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I434" t="n">
+        <v>2.754</v>
+      </c>
       <c r="J434" t="inlineStr"/>
-      <c r="K434" t="inlineStr"/>
+      <c r="K434" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L434" t="n">
         <v>1</v>
       </c>
@@ -14994,11 +15936,17 @@
         <v>28213600.30523866</v>
       </c>
       <c r="H435" t="n">
-        <v>0</v>
-      </c>
-      <c r="I435" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I435" t="n">
+        <v>2.762</v>
+      </c>
       <c r="J435" t="inlineStr"/>
-      <c r="K435" t="inlineStr"/>
+      <c r="K435" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L435" t="n">
         <v>1</v>
       </c>
@@ -15027,11 +15975,17 @@
         <v>28213600.30523866</v>
       </c>
       <c r="H436" t="n">
-        <v>0</v>
-      </c>
-      <c r="I436" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I436" t="n">
+        <v>2.754</v>
+      </c>
       <c r="J436" t="inlineStr"/>
-      <c r="K436" t="inlineStr"/>
+      <c r="K436" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L436" t="n">
         <v>1</v>
       </c>
@@ -15060,11 +16014,17 @@
         <v>28074055.94173866</v>
       </c>
       <c r="H437" t="n">
-        <v>0</v>
-      </c>
-      <c r="I437" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I437" t="n">
+        <v>2.754</v>
+      </c>
       <c r="J437" t="inlineStr"/>
-      <c r="K437" t="inlineStr"/>
+      <c r="K437" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L437" t="n">
         <v>1</v>
       </c>
@@ -15093,11 +16053,17 @@
         <v>28076007.15603866</v>
       </c>
       <c r="H438" t="n">
-        <v>0</v>
-      </c>
-      <c r="I438" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I438" t="n">
+        <v>2.741</v>
+      </c>
       <c r="J438" t="inlineStr"/>
-      <c r="K438" t="inlineStr"/>
+      <c r="K438" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L438" t="n">
         <v>1</v>
       </c>
@@ -15130,7 +16096,11 @@
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="inlineStr"/>
-      <c r="K439" t="inlineStr"/>
+      <c r="K439" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L439" t="n">
         <v>1</v>
       </c>
@@ -15159,11 +16129,17 @@
         <v>27207611.09873866</v>
       </c>
       <c r="H440" t="n">
-        <v>0</v>
-      </c>
-      <c r="I440" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I440" t="n">
+        <v>2.742</v>
+      </c>
       <c r="J440" t="inlineStr"/>
-      <c r="K440" t="inlineStr"/>
+      <c r="K440" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L440" t="n">
         <v>1</v>
       </c>
@@ -15192,11 +16168,17 @@
         <v>25402675.89233866</v>
       </c>
       <c r="H441" t="n">
-        <v>0</v>
-      </c>
-      <c r="I441" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I441" t="n">
+        <v>2.76</v>
+      </c>
       <c r="J441" t="inlineStr"/>
-      <c r="K441" t="inlineStr"/>
+      <c r="K441" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L441" t="n">
         <v>1</v>
       </c>
@@ -15225,11 +16207,17 @@
         <v>25119871.89233866</v>
       </c>
       <c r="H442" t="n">
-        <v>0</v>
-      </c>
-      <c r="I442" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I442" t="n">
+        <v>2.741</v>
+      </c>
       <c r="J442" t="inlineStr"/>
-      <c r="K442" t="inlineStr"/>
+      <c r="K442" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L442" t="n">
         <v>1</v>
       </c>
@@ -15258,11 +16246,17 @@
         <v>25119871.89233866</v>
       </c>
       <c r="H443" t="n">
-        <v>0</v>
-      </c>
-      <c r="I443" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I443" t="n">
+        <v>2.74</v>
+      </c>
       <c r="J443" t="inlineStr"/>
-      <c r="K443" t="inlineStr"/>
+      <c r="K443" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L443" t="n">
         <v>1</v>
       </c>
@@ -15291,11 +16285,17 @@
         <v>21995833.89233866</v>
       </c>
       <c r="H444" t="n">
-        <v>0</v>
-      </c>
-      <c r="I444" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I444" t="n">
+        <v>2.74</v>
+      </c>
       <c r="J444" t="inlineStr"/>
-      <c r="K444" t="inlineStr"/>
+      <c r="K444" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L444" t="n">
         <v>1</v>
       </c>
@@ -15324,11 +16324,17 @@
         <v>22283286.55243865</v>
       </c>
       <c r="H445" t="n">
-        <v>0</v>
-      </c>
-      <c r="I445" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I445" t="n">
+        <v>2.705</v>
+      </c>
       <c r="J445" t="inlineStr"/>
-      <c r="K445" t="inlineStr"/>
+      <c r="K445" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L445" t="n">
         <v>1</v>
       </c>
@@ -15357,11 +16363,17 @@
         <v>22192842.55243865</v>
       </c>
       <c r="H446" t="n">
-        <v>0</v>
-      </c>
-      <c r="I446" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I446" t="n">
+        <v>2.748</v>
+      </c>
       <c r="J446" t="inlineStr"/>
-      <c r="K446" t="inlineStr"/>
+      <c r="K446" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L446" t="n">
         <v>1</v>
       </c>
@@ -15390,11 +16402,17 @@
         <v>22185207.02163865</v>
       </c>
       <c r="H447" t="n">
-        <v>0</v>
-      </c>
-      <c r="I447" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I447" t="n">
+        <v>2.721</v>
+      </c>
       <c r="J447" t="inlineStr"/>
-      <c r="K447" t="inlineStr"/>
+      <c r="K447" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L447" t="n">
         <v>1</v>
       </c>
@@ -15423,11 +16441,17 @@
         <v>22186095.02163865</v>
       </c>
       <c r="H448" t="n">
-        <v>0</v>
-      </c>
-      <c r="I448" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I448" t="n">
+        <v>2.711</v>
+      </c>
       <c r="J448" t="inlineStr"/>
-      <c r="K448" t="inlineStr"/>
+      <c r="K448" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L448" t="n">
         <v>1</v>
       </c>
@@ -15456,11 +16480,17 @@
         <v>22196550.66933865</v>
       </c>
       <c r="H449" t="n">
-        <v>0</v>
-      </c>
-      <c r="I449" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I449" t="n">
+        <v>2.729</v>
+      </c>
       <c r="J449" t="inlineStr"/>
-      <c r="K449" t="inlineStr"/>
+      <c r="K449" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L449" t="n">
         <v>1</v>
       </c>
@@ -15489,11 +16519,17 @@
         <v>22189746.70433865</v>
       </c>
       <c r="H450" t="n">
-        <v>0</v>
-      </c>
-      <c r="I450" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I450" t="n">
+        <v>2.757</v>
+      </c>
       <c r="J450" t="inlineStr"/>
-      <c r="K450" t="inlineStr"/>
+      <c r="K450" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L450" t="n">
         <v>1</v>
       </c>
@@ -15522,11 +16558,17 @@
         <v>22189746.70433865</v>
       </c>
       <c r="H451" t="n">
-        <v>0</v>
-      </c>
-      <c r="I451" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I451" t="n">
+        <v>2.723</v>
+      </c>
       <c r="J451" t="inlineStr"/>
-      <c r="K451" t="inlineStr"/>
+      <c r="K451" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L451" t="n">
         <v>1</v>
       </c>
@@ -15555,11 +16597,17 @@
         <v>22189746.70433865</v>
       </c>
       <c r="H452" t="n">
-        <v>0</v>
-      </c>
-      <c r="I452" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I452" t="n">
+        <v>2.723</v>
+      </c>
       <c r="J452" t="inlineStr"/>
-      <c r="K452" t="inlineStr"/>
+      <c r="K452" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L452" t="n">
         <v>1</v>
       </c>
@@ -15588,11 +16636,17 @@
         <v>22221078.70433865</v>
       </c>
       <c r="H453" t="n">
-        <v>0</v>
-      </c>
-      <c r="I453" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I453" t="n">
+        <v>2.723</v>
+      </c>
       <c r="J453" t="inlineStr"/>
-      <c r="K453" t="inlineStr"/>
+      <c r="K453" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L453" t="n">
         <v>1</v>
       </c>
@@ -15621,11 +16675,17 @@
         <v>22615262.82133865</v>
       </c>
       <c r="H454" t="n">
-        <v>0</v>
-      </c>
-      <c r="I454" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I454" t="n">
+        <v>2.729</v>
+      </c>
       <c r="J454" t="inlineStr"/>
-      <c r="K454" t="inlineStr"/>
+      <c r="K454" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L454" t="n">
         <v>1</v>
       </c>
@@ -15654,11 +16714,17 @@
         <v>22616762.82133865</v>
       </c>
       <c r="H455" t="n">
-        <v>0</v>
-      </c>
-      <c r="I455" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I455" t="n">
+        <v>2.731</v>
+      </c>
       <c r="J455" t="inlineStr"/>
-      <c r="K455" t="inlineStr"/>
+      <c r="K455" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L455" t="n">
         <v>1</v>
       </c>
@@ -15687,11 +16753,17 @@
         <v>23081817.45803865</v>
       </c>
       <c r="H456" t="n">
-        <v>0</v>
-      </c>
-      <c r="I456" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I456" t="n">
+        <v>2.751</v>
+      </c>
       <c r="J456" t="inlineStr"/>
-      <c r="K456" t="inlineStr"/>
+      <c r="K456" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L456" t="n">
         <v>1</v>
       </c>
@@ -15720,11 +16792,17 @@
         <v>23081817.45803865</v>
       </c>
       <c r="H457" t="n">
-        <v>0</v>
-      </c>
-      <c r="I457" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I457" t="n">
+        <v>2.758</v>
+      </c>
       <c r="J457" t="inlineStr"/>
-      <c r="K457" t="inlineStr"/>
+      <c r="K457" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L457" t="n">
         <v>1</v>
       </c>
@@ -15753,11 +16831,17 @@
         <v>23070666.86163865</v>
       </c>
       <c r="H458" t="n">
-        <v>0</v>
-      </c>
-      <c r="I458" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I458" t="n">
+        <v>2.758</v>
+      </c>
       <c r="J458" t="inlineStr"/>
-      <c r="K458" t="inlineStr"/>
+      <c r="K458" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L458" t="n">
         <v>1</v>
       </c>
@@ -15786,11 +16870,17 @@
         <v>23070666.86163865</v>
       </c>
       <c r="H459" t="n">
-        <v>0</v>
-      </c>
-      <c r="I459" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I459" t="n">
+        <v>2.757</v>
+      </c>
       <c r="J459" t="inlineStr"/>
-      <c r="K459" t="inlineStr"/>
+      <c r="K459" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L459" t="n">
         <v>1</v>
       </c>
@@ -15819,11 +16909,17 @@
         <v>22908975.70483866</v>
       </c>
       <c r="H460" t="n">
-        <v>0</v>
-      </c>
-      <c r="I460" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I460" t="n">
+        <v>2.757</v>
+      </c>
       <c r="J460" t="inlineStr"/>
-      <c r="K460" t="inlineStr"/>
+      <c r="K460" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L460" t="n">
         <v>1</v>
       </c>
@@ -15852,11 +16948,17 @@
         <v>22908975.70483866</v>
       </c>
       <c r="H461" t="n">
-        <v>0</v>
-      </c>
-      <c r="I461" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I461" t="n">
+        <v>2.74</v>
+      </c>
       <c r="J461" t="inlineStr"/>
-      <c r="K461" t="inlineStr"/>
+      <c r="K461" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L461" t="n">
         <v>1</v>
       </c>
@@ -15885,11 +16987,17 @@
         <v>23558913.76193866</v>
       </c>
       <c r="H462" t="n">
-        <v>0</v>
-      </c>
-      <c r="I462" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I462" t="n">
+        <v>2.74</v>
+      </c>
       <c r="J462" t="inlineStr"/>
-      <c r="K462" t="inlineStr"/>
+      <c r="K462" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L462" t="n">
         <v>1</v>
       </c>
@@ -15918,11 +17026,17 @@
         <v>23558913.76193866</v>
       </c>
       <c r="H463" t="n">
-        <v>0</v>
-      </c>
-      <c r="I463" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I463" t="n">
+        <v>2.755</v>
+      </c>
       <c r="J463" t="inlineStr"/>
-      <c r="K463" t="inlineStr"/>
+      <c r="K463" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L463" t="n">
         <v>1</v>
       </c>
@@ -15955,7 +17069,11 @@
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
-      <c r="K464" t="inlineStr"/>
+      <c r="K464" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L464" t="n">
         <v>1</v>
       </c>
@@ -15988,7 +17106,11 @@
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="inlineStr"/>
-      <c r="K465" t="inlineStr"/>
+      <c r="K465" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L465" t="n">
         <v>1</v>
       </c>
@@ -16021,7 +17143,11 @@
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="inlineStr"/>
-      <c r="K466" t="inlineStr"/>
+      <c r="K466" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L466" t="n">
         <v>1</v>
       </c>
@@ -16054,7 +17180,11 @@
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="inlineStr"/>
-      <c r="K467" t="inlineStr"/>
+      <c r="K467" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L467" t="n">
         <v>1</v>
       </c>
@@ -16083,11 +17213,17 @@
         <v>23512295.34233866</v>
       </c>
       <c r="H468" t="n">
-        <v>0</v>
-      </c>
-      <c r="I468" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I468" t="n">
+        <v>2.74</v>
+      </c>
       <c r="J468" t="inlineStr"/>
-      <c r="K468" t="inlineStr"/>
+      <c r="K468" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L468" t="n">
         <v>1</v>
       </c>
@@ -16116,11 +17252,17 @@
         <v>23343041.43913866</v>
       </c>
       <c r="H469" t="n">
-        <v>0</v>
-      </c>
-      <c r="I469" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I469" t="n">
+        <v>2.74</v>
+      </c>
       <c r="J469" t="inlineStr"/>
-      <c r="K469" t="inlineStr"/>
+      <c r="K469" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L469" t="n">
         <v>1</v>
       </c>
@@ -16149,11 +17291,17 @@
         <v>23173343.53583866</v>
       </c>
       <c r="H470" t="n">
-        <v>0</v>
-      </c>
-      <c r="I470" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I470" t="n">
+        <v>2.735</v>
+      </c>
       <c r="J470" t="inlineStr"/>
-      <c r="K470" t="inlineStr"/>
+      <c r="K470" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L470" t="n">
         <v>1</v>
       </c>
@@ -16182,11 +17330,17 @@
         <v>23173343.53583866</v>
       </c>
       <c r="H471" t="n">
-        <v>0</v>
-      </c>
-      <c r="I471" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I471" t="n">
+        <v>2.723</v>
+      </c>
       <c r="J471" t="inlineStr"/>
-      <c r="K471" t="inlineStr"/>
+      <c r="K471" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L471" t="n">
         <v>1</v>
       </c>
@@ -16215,11 +17369,17 @@
         <v>23290186.82703866</v>
       </c>
       <c r="H472" t="n">
-        <v>0</v>
-      </c>
-      <c r="I472" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I472" t="n">
+        <v>2.723</v>
+      </c>
       <c r="J472" t="inlineStr"/>
-      <c r="K472" t="inlineStr"/>
+      <c r="K472" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L472" t="n">
         <v>1</v>
       </c>
@@ -16248,11 +17408,17 @@
         <v>23340034.47903866</v>
       </c>
       <c r="H473" t="n">
-        <v>0</v>
-      </c>
-      <c r="I473" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I473" t="n">
+        <v>2.727</v>
+      </c>
       <c r="J473" t="inlineStr"/>
-      <c r="K473" t="inlineStr"/>
+      <c r="K473" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L473" t="n">
         <v>1</v>
       </c>
@@ -16281,11 +17447,17 @@
         <v>23338407.4482205</v>
       </c>
       <c r="H474" t="n">
-        <v>0</v>
-      </c>
-      <c r="I474" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I474" t="n">
+        <v>2.753</v>
+      </c>
       <c r="J474" t="inlineStr"/>
-      <c r="K474" t="inlineStr"/>
+      <c r="K474" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L474" t="n">
         <v>1</v>
       </c>
@@ -16314,11 +17486,17 @@
         <v>20303323.0897205</v>
       </c>
       <c r="H475" t="n">
-        <v>0</v>
-      </c>
-      <c r="I475" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I475" t="n">
+        <v>2.74</v>
+      </c>
       <c r="J475" t="inlineStr"/>
-      <c r="K475" t="inlineStr"/>
+      <c r="K475" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L475" t="n">
         <v>1</v>
       </c>
@@ -16347,11 +17525,17 @@
         <v>21104301.5182205</v>
       </c>
       <c r="H476" t="n">
-        <v>0</v>
-      </c>
-      <c r="I476" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I476" t="n">
+        <v>2.725</v>
+      </c>
       <c r="J476" t="inlineStr"/>
-      <c r="K476" t="inlineStr"/>
+      <c r="K476" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L476" t="n">
         <v>1</v>
       </c>
@@ -16380,11 +17564,17 @@
         <v>21104070.4092205</v>
       </c>
       <c r="H477" t="n">
-        <v>0</v>
-      </c>
-      <c r="I477" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I477" t="n">
+        <v>2.739</v>
+      </c>
       <c r="J477" t="inlineStr"/>
-      <c r="K477" t="inlineStr"/>
+      <c r="K477" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L477" t="n">
         <v>1</v>
       </c>
@@ -16413,11 +17603,17 @@
         <v>20432000.2980205</v>
       </c>
       <c r="H478" t="n">
-        <v>0</v>
-      </c>
-      <c r="I478" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I478" t="n">
+        <v>2.733</v>
+      </c>
       <c r="J478" t="inlineStr"/>
-      <c r="K478" t="inlineStr"/>
+      <c r="K478" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L478" t="n">
         <v>1</v>
       </c>
@@ -16446,11 +17642,17 @@
         <v>21634638.8727205</v>
       </c>
       <c r="H479" t="n">
-        <v>0</v>
-      </c>
-      <c r="I479" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I479" t="n">
+        <v>2.715</v>
+      </c>
       <c r="J479" t="inlineStr"/>
-      <c r="K479" t="inlineStr"/>
+      <c r="K479" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L479" t="n">
         <v>1</v>
       </c>
@@ -16487,7 +17689,7 @@
       <c r="J480" t="inlineStr"/>
       <c r="K480" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L480" t="n">
@@ -16518,9 +17720,11 @@
         <v>21640624.7052205</v>
       </c>
       <c r="H481" t="n">
-        <v>0</v>
-      </c>
-      <c r="I481" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I481" t="n">
+        <v>2.737</v>
+      </c>
       <c r="J481" t="inlineStr"/>
       <c r="K481" t="inlineStr">
         <is>
@@ -16555,9 +17759,11 @@
         <v>21834630.2181205</v>
       </c>
       <c r="H482" t="n">
-        <v>0</v>
-      </c>
-      <c r="I482" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I482" t="n">
+        <v>2.737</v>
+      </c>
       <c r="J482" t="inlineStr"/>
       <c r="K482" t="inlineStr">
         <is>
@@ -16592,9 +17798,11 @@
         <v>22068303.1730205</v>
       </c>
       <c r="H483" t="n">
-        <v>0</v>
-      </c>
-      <c r="I483" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I483" t="n">
+        <v>2.74</v>
+      </c>
       <c r="J483" t="inlineStr"/>
       <c r="K483" t="inlineStr">
         <is>
@@ -16629,9 +17837,11 @@
         <v>22068303.1730205</v>
       </c>
       <c r="H484" t="n">
-        <v>0</v>
-      </c>
-      <c r="I484" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I484" t="n">
+        <v>2.745</v>
+      </c>
       <c r="J484" t="inlineStr"/>
       <c r="K484" t="inlineStr">
         <is>
@@ -16666,9 +17876,11 @@
         <v>22068303.1730205</v>
       </c>
       <c r="H485" t="n">
-        <v>0</v>
-      </c>
-      <c r="I485" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I485" t="n">
+        <v>2.745</v>
+      </c>
       <c r="J485" t="inlineStr"/>
       <c r="K485" t="inlineStr">
         <is>
@@ -16703,9 +17915,11 @@
         <v>22166606.0108205</v>
       </c>
       <c r="H486" t="n">
-        <v>0</v>
-      </c>
-      <c r="I486" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I486" t="n">
+        <v>2.745</v>
+      </c>
       <c r="J486" t="inlineStr"/>
       <c r="K486" t="inlineStr">
         <is>
@@ -16740,9 +17954,11 @@
         <v>22166606.0108205</v>
       </c>
       <c r="H487" t="n">
-        <v>0</v>
-      </c>
-      <c r="I487" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I487" t="n">
+        <v>2.747</v>
+      </c>
       <c r="J487" t="inlineStr"/>
       <c r="K487" t="inlineStr">
         <is>
@@ -16777,9 +17993,11 @@
         <v>22250031.9372205</v>
       </c>
       <c r="H488" t="n">
-        <v>0</v>
-      </c>
-      <c r="I488" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I488" t="n">
+        <v>2.747</v>
+      </c>
       <c r="J488" t="inlineStr"/>
       <c r="K488" t="inlineStr">
         <is>
@@ -16814,9 +18032,11 @@
         <v>22250031.9372205</v>
       </c>
       <c r="H489" t="n">
-        <v>0</v>
-      </c>
-      <c r="I489" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I489" t="n">
+        <v>2.749</v>
+      </c>
       <c r="J489" t="inlineStr"/>
       <c r="K489" t="inlineStr">
         <is>
@@ -16851,9 +18071,11 @@
         <v>22435320.80952049</v>
       </c>
       <c r="H490" t="n">
-        <v>0</v>
-      </c>
-      <c r="I490" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I490" t="n">
+        <v>2.749</v>
+      </c>
       <c r="J490" t="inlineStr"/>
       <c r="K490" t="inlineStr">
         <is>
@@ -16888,9 +18110,11 @@
         <v>23591478.2821205</v>
       </c>
       <c r="H491" t="n">
-        <v>0</v>
-      </c>
-      <c r="I491" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I491" t="n">
+        <v>2.75</v>
+      </c>
       <c r="J491" t="inlineStr"/>
       <c r="K491" t="inlineStr">
         <is>
@@ -16925,9 +18149,11 @@
         <v>23591478.2821205</v>
       </c>
       <c r="H492" t="n">
-        <v>0</v>
-      </c>
-      <c r="I492" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I492" t="n">
+        <v>2.758</v>
+      </c>
       <c r="J492" t="inlineStr"/>
       <c r="K492" t="inlineStr">
         <is>
@@ -16962,9 +18188,11 @@
         <v>23355629.6719205</v>
       </c>
       <c r="H493" t="n">
-        <v>0</v>
-      </c>
-      <c r="I493" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I493" t="n">
+        <v>2.758</v>
+      </c>
       <c r="J493" t="inlineStr"/>
       <c r="K493" t="inlineStr">
         <is>
@@ -16999,9 +18227,11 @@
         <v>23355629.6719205</v>
       </c>
       <c r="H494" t="n">
-        <v>0</v>
-      </c>
-      <c r="I494" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I494" t="n">
+        <v>2.75</v>
+      </c>
       <c r="J494" t="inlineStr"/>
       <c r="K494" t="inlineStr">
         <is>
@@ -17036,9 +18266,11 @@
         <v>23355629.6719205</v>
       </c>
       <c r="H495" t="n">
-        <v>0</v>
-      </c>
-      <c r="I495" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I495" t="n">
+        <v>2.75</v>
+      </c>
       <c r="J495" t="inlineStr"/>
       <c r="K495" t="inlineStr">
         <is>
@@ -17073,9 +18305,11 @@
         <v>23355629.6719205</v>
       </c>
       <c r="H496" t="n">
-        <v>0</v>
-      </c>
-      <c r="I496" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I496" t="n">
+        <v>2.75</v>
+      </c>
       <c r="J496" t="inlineStr"/>
       <c r="K496" t="inlineStr">
         <is>
@@ -17110,9 +18344,11 @@
         <v>23355629.6719205</v>
       </c>
       <c r="H497" t="n">
-        <v>0</v>
-      </c>
-      <c r="I497" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I497" t="n">
+        <v>2.75</v>
+      </c>
       <c r="J497" t="inlineStr"/>
       <c r="K497" t="inlineStr">
         <is>
@@ -17147,9 +18383,11 @@
         <v>23355629.6719205</v>
       </c>
       <c r="H498" t="n">
-        <v>0</v>
-      </c>
-      <c r="I498" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I498" t="n">
+        <v>2.75</v>
+      </c>
       <c r="J498" t="inlineStr"/>
       <c r="K498" t="inlineStr">
         <is>
@@ -17184,9 +18422,11 @@
         <v>23355629.6719205</v>
       </c>
       <c r="H499" t="n">
-        <v>0</v>
-      </c>
-      <c r="I499" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I499" t="n">
+        <v>2.75</v>
+      </c>
       <c r="J499" t="inlineStr"/>
       <c r="K499" t="inlineStr">
         <is>
@@ -17221,9 +18461,11 @@
         <v>23229828.0259205</v>
       </c>
       <c r="H500" t="n">
-        <v>0</v>
-      </c>
-      <c r="I500" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I500" t="n">
+        <v>2.75</v>
+      </c>
       <c r="J500" t="inlineStr"/>
       <c r="K500" t="inlineStr">
         <is>
@@ -17258,9 +18500,11 @@
         <v>23229828.0259205</v>
       </c>
       <c r="H501" t="n">
-        <v>0</v>
-      </c>
-      <c r="I501" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I501" t="n">
+        <v>2.749</v>
+      </c>
       <c r="J501" t="inlineStr"/>
       <c r="K501" t="inlineStr">
         <is>
@@ -17295,9 +18539,11 @@
         <v>23229606.0259205</v>
       </c>
       <c r="H502" t="n">
-        <v>0</v>
-      </c>
-      <c r="I502" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I502" t="n">
+        <v>2.749</v>
+      </c>
       <c r="J502" t="inlineStr"/>
       <c r="K502" t="inlineStr">
         <is>
@@ -17332,9 +18578,11 @@
         <v>23229606.0259205</v>
       </c>
       <c r="H503" t="n">
-        <v>0</v>
-      </c>
-      <c r="I503" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I503" t="n">
+        <v>2.74</v>
+      </c>
       <c r="J503" t="inlineStr"/>
       <c r="K503" t="inlineStr">
         <is>
@@ -17369,9 +18617,11 @@
         <v>22882871.70242861</v>
       </c>
       <c r="H504" t="n">
-        <v>0</v>
-      </c>
-      <c r="I504" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I504" t="n">
+        <v>2.74</v>
+      </c>
       <c r="J504" t="inlineStr"/>
       <c r="K504" t="inlineStr">
         <is>
@@ -17406,9 +18656,11 @@
         <v>22882871.70242861</v>
       </c>
       <c r="H505" t="n">
-        <v>0</v>
-      </c>
-      <c r="I505" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I505" t="n">
+        <v>2.739</v>
+      </c>
       <c r="J505" t="inlineStr"/>
       <c r="K505" t="inlineStr">
         <is>
@@ -17872,9 +19124,11 @@
         <v>22490546.98382861</v>
       </c>
       <c r="H517" t="n">
-        <v>0</v>
-      </c>
-      <c r="I517" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I517" t="n">
+        <v>2.748</v>
+      </c>
       <c r="J517" t="inlineStr"/>
       <c r="K517" t="inlineStr">
         <is>
@@ -17987,9 +19241,11 @@
         <v>22342853.48702861</v>
       </c>
       <c r="H520" t="n">
-        <v>0</v>
-      </c>
-      <c r="I520" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I520" t="n">
+        <v>2.74</v>
+      </c>
       <c r="J520" t="inlineStr"/>
       <c r="K520" t="inlineStr">
         <is>
